--- a/finetuning/it_datasets/it_dataset/it_hammam sousse_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_hammam sousse_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a cozy Cafe, check out Cafe L'osmose located at Hammam Sousse. This top-rated destination is perfect for Cafe lovers and offers a warm and inviting ambiance. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website or call them at 26 558 550.</t>
+          <t>Cafe L'osmose is a well-rated cafe located in Hammam Sousse, Tunisia. It's a popular spot among locals and tourists alike, offering a cozy ambiance and a wide selection of coffee, tea, and snacks. The cafe is conveniently located near the city center and is open from 6:30 AM to midnight, making it a great option for a morning coffee or a late-night snack.</t>
         </is>
       </c>
     </row>
@@ -753,9 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe resto l'emeraude bleue located at VJ75+Q6W Cafe resto l'emeraude bleue, Hammam Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.8645502, 10.608126. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+resto+l%27emeraude+bleue/data=!4m7!3m6!1s0x12fd8a11e16cf65b:0xfbc7874f9de4402b!8m2!3d35.864477!4d10.6080783!16s%2Fg%2F11c51bp7hw!19sChIJW_Zs4RGK_RIRK0DknU-Hx_s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe resto l'emeraude bleue is a cafe located at 35.8645502 longitude and 10.608126 latitude, in Hammam Sousse. It is open from 8 AM to 10 PM everyday.</t>
         </is>
       </c>
     </row>
@@ -862,9 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a top-rated spot, check out Wakeup Salon de the located at Wakeup Salon de the, Hammam Sousse 4011. 
-This destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at https://www.facebook.com/Wakeupeelmenchia or call them at 25 228 772.</t>
+          <t>Wakeup Salon de the is a highly-rated cafe located in Hammam Sousse, Tunisia. With an average rating of 4.8 out of 5 stars from 34 reviews, it offers a cozy ambiance, delicious food and drinks, and friendly service. The cafe is open 24 hours a day, making it a popular destination for locals and tourists alike. It is conveniently located near other attractions and amenities in the city, making it easy to explore the area. Whether you're looking for a quick bite to eat or a place to relax and enjoy a cup of coffee, Wakeup Salon de the is a great choice.</t>
         </is>
       </c>
     </row>
@@ -963,8 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great cafe, check out the highly rated Cafe Africana. 
-This popular destination is perfect for cafe lovers and it's open during these hours: 10:00-23:30. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Café Africana is a popular café located in Hammam Sousse, Tunisia. It offers a wide variety of coffees, teas, and other beverages, as well as a selection of light snacks. The café is located at the coordinates (35.8640797, 10.5922801) and is open from 10:00 AM to 11:30 PM, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1062,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe Camorra Coffee located at VJ93+29C Cafe Camorra Coffee, Hammam Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at  or call them at 27 192 283.</t>
+          <t>Nestled in the heart of Hammam Sousse, Cafe Camorra Coffee is a popular cafe offering a cozy ambiance for coffee enthusiasts. Located at VJ93+29C, Cafe Camorra Coffee is open from 6:00 AM to midnight, catering to early risers and night owls alike. With a 4.5-star rating based on 13 reviews, this cafe has garnered a loyal customer base.</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1161,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Cafe spot, check out hacienda cafe/resto located at VJ45+9W5 hacienda cafe/resto, Av. des orangers, Hammam Sousse. This popular destination has a rating of 4.6 and is open daily from 07:00-00:00. For more details, visit their website or call them at .</t>
+          <t>Hacienda café/resto is a café located in Hammam Sousse (35.855442898164, 10.587362518967). With a rating of 4.6 out of 5 based on 9 reviews, it offers a great experience for those looking for a casual dining option.</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great Cafe, check out Cafe Maure Sidi kantaoui located at VHQV+64W Cafe Maure Sidi kantaoui, Hammam Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.88853, 10.58748. For more details, visit their website at or call them at.</t>
+          <t>Cafe Maure Sidi kantaoui is a local cafe located in hammam sousse. It's a great place to savor a cup of coffee and grab a bite to eat. The cafe is situated at the following coordinates: (35.88853, 10.58748) and offers a warm and friendly atmosphere, making it a perfect spot to relax and unwind.</t>
         </is>
       </c>
     </row>
@@ -1368,9 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Amigos El Kantaoui located at Amigos El Kantaoui, Hammam Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.88853, 10.58748. For more details, visit their website at https://www.facebook.com/amigos.coffe.shop.kantaoui or call them at None.</t>
+          <t>Amigos El Kantaoui is a cozy cafe in Hammam Sousse, Tunisia. It is located at the coordinates (35.88853, 10.58748). The cafe offers a warm and inviting atmosphere, making it the perfect place to relax and enjoy a cup of coffee with friends. Amigos El Kantaoui also offers a variety of food options, including sandwiches, salads, and pastries.</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1466,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Coffee shop JOKER located at Hammam Sousse 4011. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at https://www.google.com/maps/place/Coffee+shop+JOKER/data=!4m7!3m6!1s0x12fd8951dc495a1b:0xad98cf46bbb8f2aa!8m2!3d35.8601762!4d10.5866152!16s%2Fg%2F11gmchw1l5!19sChIJG1pJ3FGJ_RIRqvK4u0bPmK0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 536 224.</t>
+          <t>Coffee shop JOKER is located in hammam sousse (coordinates: (35.8626374, 10.5828884)). It is a cafe open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -1572,9 +1565,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out L'Artistou Cafe located at VH2X+66H L'Artistou Cafe, Hammam Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-23:00, but closed on []. To get there, use these GPS coordinates: 35.867329752525, 10.602052656439. For more details, visit their website at https://www.google.com/maps/place/L%27Artistou+Caf%C3%A9/data=!4m7!3m6!1s0x12fd8a683397d957:0xf5e9be7c03e21973!8m2!3d35.85057!4d10.598098!16s%2Fg%2F11h9rsnw9m!19sChIJV9mXM2iK_RIRcxniA3y-6fU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>L'Artistou Cafe is located in Hammam Sousse, known for its 5.0 rating and positive reviews. It offers a cozy ambiance for cafe enthusiasts with a varied menu of refreshments. The cafe is open daily from 07:30 to 23:00, making it convenient for customers to visit. L'Artistou Cafe's strategic location at coordinates (35.867329752525, 10.602052656439) makes it easily accessible. With its central location and inviting atmosphere, L'Artistou Cafe is an ideal spot to relax, socialize, or simply enjoy a delightful cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -1673,10 +1664,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe degla located at Bd Abdelkader Daghrir, Hammam Sousse 4011. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-23:30, but closed on . 
-To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at  or call them at .</t>
+          <t>Cafe degla is a cafe located in hammam sousse, Tunisia. It offers a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is open from 05:00 to 23:30 every day, and it has a rating of 5.0 out of 5 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1767,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to eat, check out Restaurant Miam's Hammam Sousse located at VJ74+HHG Restaurant Miam's Hammam Sousse, Rte de la Plage, Lebna. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-22:30, but closed on []. To get there, use these GPS coordinates: 36.7033595, 10.9431805. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Miam%27s+Hammam+Sousse/data=!4m7!3m6!1s0x12fd8a11ec8c6bed:0x43c02f5ee21b39a!8m2!3d35.8639355!4d10.6064403!16s%2Fg%2F11c5hkcxkq!19sChIJ7WuM7BGK_RIRmrMh7vUCPAQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 177 097.</t>
+          <t>Restaurant Miam's Hammam Sousse is a popular dining destination located in Hammam Sousse, Tunisia. With a rating of 4.2 and over 660 reviews on Google Maps, it is a highly sought-after establishment. The restaurant offers a welcoming atmosphere and serves delicious burgers, pizzas, salads, and other culinary delights. Its convenient location and extensive weekday timing from 12:00 pm to 10:30 pm make it an ideal choice for locals and tourists alike. Patrons rave about the quality of food, excellent service, and pleasant ambiance, making it a favorite spot for dining and social gatherings.</t>
         </is>
       </c>
     </row>
@@ -1886,9 +1874,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great cafe, check out Cafe The Diesel located at VJ53+WJ4. 
-This top-rated destination is perfect for Cafe and Torrefacteur lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.facebook.com/pages/The-Diesel-Sousse/1720332748223002 or call them at 52 777 278.</t>
+          <t>Cafe The Diesel is a cafe located in Hammam Sousse, Tunisia. It offers a variety of dishes, including breakfast, brunch, and lunch. The cafe is open from 8am to 1am and has a 4-star rating on Google. It is known for its quality food, friendly staff, and cozy atmosphere. The cafe is also a popular spot for live music and has a featured image of a diesel truck.</t>
         </is>
       </c>
     </row>
@@ -1995,9 +1981,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to eat, check out Waterside Cafe &amp; Kitchen located at Rue des Palmiers, Immeuble Acqua Palace, Hammam Sousse 4089. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-16:30, 19:45-00:30. To get there, use these GPS coordinates: 37.864464, -122.301631. For more details, visit their website at https://waterside.acquapalace.com/ or call them at 73 246 050.</t>
+          <t>**Waterside Cafe &amp; Kitchen** is a cafe and grill restaurant located in Hammam Sousse, Tunisia. It is known for its breakfast, burgers, pizzas, and other grilled dishes. The restaurant has a 4.4-star rating on Google and is popular with families and people looking for a casual dining experience. It is open from 8:30 AM to 4:30 PM and 7:45 PM to 12:30 AM, and closed on Sundays. The cafe and kitchen is part of the Acqua Palace complex, which includes a water park, hotel, and other amenities.</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2084,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Cafe, check out Jazz Cafe located at VJF2+HM9 Jazz Cafe. This must-visit spot offers a range of Cafe to choose from. With a rating of 4.2, it's a popular destination for Cafe lovers. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 52 405 204.</t>
+          <t>Jazz Cafe, nestled in the heart of Hammam Sousse, is a cozy and lively spot renowned for its exceptional breakfast menu. Guests rave about the delightful live music that creates a vibrant atmosphere while they savor their morning meal. The cafe's prime location at VJF2+HM9 makes it easily accessible, and the average rating of 4.2 out of 5 stars is a testament to its quality.</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2191,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great cafe, check out Cafe La Terrasse located at WH6G+QF2 Cafe La Terrasse, Hammam Sousse. This top-rated destination is perfect for cafe lovers and offers a chicha, cappuccino and prix. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at http://www.fastfoodformule1.com/ or call them at 73 817 837.</t>
+          <t>Cafe La Terrasse is a 4.2-rated cafe located in Hammam Sousse, Tunisia at (35.8640797, 10.5922801). It is open from 07:00-01:00 and offers chicha, cappuccino, and affordable prices.</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2294,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated cafe, check out Cafe L'osmose located at Hammam Sousse. This cafe is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website or call them at 26 558 550.</t>
+          <t>Cafe L'osmose is a cafe located in Hammam Sousse, Tunisia. It is open from 6:30 am to midnight, and has a rating of 4.3 out of 5 stars on Google. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. It is located at 35.8640797, 10.5922801.</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2397,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe El Medina located at VHVV+4JQ Hammam Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-03:30, but closed on To get there, use these GPS coordinates: 35.8608, 10.58937. For more details, visit their website or call them at 50 740 318.</t>
+          <t>Cafe El Medina is a 4.6-rated restaurant located in Hammam Sousse, Tunisia. Its most popular offerings include chicha, live music, and a chic decor. The restaurant is open from 9:00 AM to 3:30 AM and can be contacted at 50 740 318.</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2496,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe resto l'emeraude bleue located at VJ75+Q6W Cafe resto l'emeraude bleue, Hammam Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.8645502, 10.608126. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+resto+l%27emeraude+bleue/data=!4m7!3m6!1s0x12fd8a11e16cf65b:0xfbc7874f9de4402b!8m2!3d35.864477!4d10.6080783!16s%2Fg%2F11c51bp7hw!19sChIJW_Zs4RGK_RIRK0DknU-Hx_s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe resto L'emeraude bleue is a cafe located in Hammam Sousse, Tunisia. It is open from 8:00 am to 10:00 pm. The cafe has a rating of 4.2 stars on Google and offers a variety of food and drinks. It can be found at the coordinates (35.8645502, 10.608126).</t>
         </is>
       </c>
     </row>
@@ -2611,9 +2595,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great cafe, check out SUN STREET CAFE &amp; RESTAURANT located at VJ66+PHQ SUN STREET CAFE &amp; RESTAURANT, Av. 14 Janvier, Hammam Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 51.6867027, -0.001502. For more details, visit their website at https://www.google.com/maps/place/SUN+STREET+CAFE+%26+RESTAURANT/data=!4m7!3m6!1s0x12fd8b662932cf63:0xefb5b2f1c14b8e66!8m2!3d35.8618421!4d10.6114995!16s%2Fg%2F11j_8bl2_z!19sChIJY88yKWaL_RIRZo5LwfGyte8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 503 502.</t>
+          <t>SUN STREET CAFE &amp; RESTAURANT is a cafe located in hammam sousse, Tunisia. It has a 4.4 rating based on 38 reviews and offers cuisine. It is situated at 51.6867027 latitude and -0.001502 longitude.</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2698,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a Cafe, check out Colombus cafe Sousse located at VJ93+7MH Colombus cafe Sousse, Av. 14 Janvier, Hammam Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-02:00. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at https://www.google.com/maps/place/Colombus+caf%C3%A9+Sousse/data=!4m7!3m6!1s0x12fd8b07e57b5f69:0x18553aed89a11d56!8m2!3d35.8681937!4d10.604222!16s%2Fg%2F11g0mg877y!19sChIJaV975QeL_RIRVh2hie06VRg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 584 584.</t>
+          <t>Colombus cafe Sousse is a cafe located in hammam sousse at (35.8293001, 10.6406309). It offers a cozy atmosphere and a great selection of coffee drinks. The cafe opens from 07:00-02:00 and has a 4.1 rating on Google based on 35 reviews.</t>
         </is>
       </c>
     </row>
@@ -2823,9 +2805,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out La boheme cafe restaurant located at VJ24+JHG La boheme cafe restaurant, Hammam Sousse. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the and Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on  []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://m.facebook.com/labohemecaferesto/ or call them at 23 975 577.</t>
+          <t>La bohème café restaurant is a coffee shop with a 4.3 rating out of 34 reviews, located in Hammam Sousse, Tunisia, accessible from 8 AM to 11 PM.</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2904,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Cafe, check out Cafe Africana located at VH7X+PJG, Cafe Africana, Hammam Sousse. With a rating of 4.0, it's a cafe lovers must-visit spot. It's open during these hours: 10:00-23:30, but closed on none. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Cafe Africana is a 4-star cafe located in Hammam Sousse, Tunisia. It is open from 10:00 AM to 11:30 PM and offers a variety of cafe drinks and food. The cafe is located at 35.8640797 latitude and 10.5922801 longitude.</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3007,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a great cafe, check out Cafe Les Amis located at Cafe Les Amis, Hammam Sousse, Sousse 4011. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Les+Amis/data=!4m7!3m6!1s0x12fd8a38e2a9ab53:0x217840d1d2e037b6!8m2!3d35.8621378!4d10.5892576!16s%2Fg%2F11g5zz4dhw!19sChIJU6up4jiK_RIRtjfg0tFAeCE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 441 039.</t>
+          <t>Cafe Les Amis is a cafe located in Hammam Sousse, Sousse 4011. It offers a variety of cafe drinks and food. The cafe is open from 6:30am to 12:00am and is closed on Sundays. The cafe has a rating of 4.1 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -3130,11 +3110,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a great cup of coffee, head to Cafe Camorra Coffee located at VJ93+29C. 
-This top-rated spot is perfect for coffee lovers and offers a cozy atmosphere. 
-With a rating of 4.5 out of 5, it's a must-visit destination. It's open every day from 6am to midnight. 
-To get there, use these GPS coordinates: 35.8640797, 10.5922801. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Camorra+Coffee/ or call them at 27 192 283.</t>
+          <t>Cafe Camorra Coffee, located in Hammam Sousse, is a highly-rated cafe (4.5 out of 5) with over a dozen positive reviews. Known for its cozy ambiance, the cafe serves delicious coffee and offers a warm and welcoming atmosphere. It is situated in the heart of Hammam Sousse, making it easily accessible to locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3213,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Cafe, check out Cafe El Ons. Located at VJ73+4PX Cafe El Ons, Rte de la Plage, Hammam Sousse, this destination offers a range of Cafe options for you to choose from. With a rating of 4.2, it's a must-visit spot. It's open daily from 07:00-00:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 24 340 430.</t>
+          <t>Cafe El Ons is a café renowned for its 4.2-star rating. It offers a relaxing ambiance and a captivating atmosphere. Located at the heart of Hammam Sousse, it invites patrons to unwind and savor delectable offerings.</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3316,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Cafe, check out Cafe Ben Ali El Ghrabi located at VH4Q+F29 Cafe Ben Ali El Ghrabi, Av. Charles De Gaulle. This popular destination offers a range of Cafe options and has a rating of 4.4. It's open daily from 05:00-22:00 and closed on []. To get there, use these GPS coordinates: 35.851759843003, 10.59815940157. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ben+Ali+El+Ghrabi/data=!4m7!3m6!1s0x12fd8a4634cdefd9:0x582c30b655535a9!8m2!3d35.8561606!4d10.5876204!16s%2Fg%2F11g7z5kvxd!19sChIJ2e_NNEaK_RIRqTVVZQvDggU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 453 822.</t>
+          <t>Cafe Ben Ali El Ghrabi is a highly rated cafe located on Av. Charles De Gaulle in Hammam Sousse. It is open from 5am to 10pm every day and offers a variety of food and drink options. Cafe Ben Ali El Ghrabi is known for its friendly staff and relaxed atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3415,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great cafe, check out Cafe Switch Coffee located at VH5W+5W5 Cafe Switch Coffee, Hammam Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Cafe Switch Coffee is a highly-rated cafe located in Hammam Sousse, Tunisia. With a 4.8-star rating based on 12 reviews, this cafe is known for its exceptional ambiance and delicious coffee. The cafe is open daily from 7:00 AM to midnight, providing a convenient and cozy spot for locals and visitors to enjoy their morning brew or relax with an evening coffee. With its prime location at VH5W+5W5, Cafe Switch Coffee is easily accessible and offers a welcoming atmosphere for all coffee enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3510,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated cafe, head to Cafe Charka, located at VJC4+WGC Cafe Charka, Hammam Sousse. This 4.7-star destination offers a range of cafe options. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Charka/data=!4m7!3m6!1s0x12fd8b216e028bb9:0xc3afc92ceaedc969!8m2!3d35.8723144!4d10.6062573!16s%2Fg%2F11h42ng1q6!19sChIJuYsCbiGL_RIRacnt6izJr8M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at . To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Cafe Charka is a highly-rated (4.7/5) cafe located in Hammam Sousse, Tunisia. Offering a cozy atmosphere, it features a wide range of cafe favorites, from aromatic coffees to refreshing beverages. The cafe's precise location is 35.8640797 latitude and 10.5922801 longitude.</t>
         </is>
       </c>
     </row>
@@ -3633,9 +3609,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out hacienda cafe/resto located at VJ45+9W5 hacienda cafe/resto, Av. des orangers, Hammam Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on. To get there, use these GPS coordinates: 35.855442898164, 10.587362518967. For more details, visit their website at .</t>
+          <t>Hacienda cafe/resto is a cafe located in Hammam Sousse, Tunisia. It offers a variety of food and drinks, and is open from 7am to midnight. The cafe has a rating of 4.6 out of 5 on Google, and is located at the coordinates 35.855442898164, 10.587362518967.</t>
         </is>
       </c>
     </row>
@@ -3734,9 +3708,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>**If you're in hammam sousse and looking for a cozy spot to grab a bite, visit Cafeteria After Work, located at VH5V+538.**
-This top-rated cafe is perfect for coffee enthusiasts and offers a delightful range of beverages. With a remarkable rating of 4.9, it's a must-visit destination.
-**Open from 7 AM to 1 AM daily**, Cafeteria After Work provides ample time to unwind and enjoy your favorite drinks. Check out their website for more details.</t>
+          <t>Cafeteria After Work is a cafe located in VH5V+538 Cafeteria After Work, Hammam Sousse, Tunisia. It is open daily from 7:00 AM to 1:00 AM and offers a variety of food and drinks. The cafe is known for its friendly staff and its cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3811,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Coffee shop JOKER located at Hammam Sousse 4011. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website or call them at 98 536 224.</t>
+          <t>Coffee Shop JOKER welcomes you 24 hours a day in Hammam Sousse. This café is rated 4.4/5 stars by its customers. Its location is: 35.8626374 and 10.5828884.</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3910,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Cafe, check out Cafe Maure Sidi kantaoui. This highly-rated destination offers a range of Cafe options to choose from. With a rating of 5.0, it's a must-visit spot if you're a Cafe lover. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 35.88853, 10.58748. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Maure Sidi kantaoui is a cafe located in Hammam Sousse, Tunisia , with coordinates (35.88853, 10.58748). It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and other beverages. The cafe also has a great selection of pastries and snacks, and is a great place to relax and enjoy the atmosphere of Hammam Sousse.</t>
         </is>
       </c>
     </row>
@@ -4037,10 +4009,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a cozy spot to unwind, check out Viking coffe &amp; food located at VH7V+86Q. 
-This top-rated destination is perfect for Cafe lovers and offers a wide range of drinks and snacks to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-01:00, but closed on [closed_on]. 
-GPS coordinates: 56.8299697, 60.6006047.</t>
+          <t>Viking coffe &amp; food is a cafe located in Hammam Sousse, Tunisia. Its coordinates are (56.8299697, 60.6006047). It has a rating of 4.3 based on 6 reviews. It operates from 07:00 to 01:00.</t>
         </is>
       </c>
     </row>
@@ -4143,11 +4112,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a great cafe, check out Cafe Opera at VH3W+FVH Cafe Opera, Rue Farhat Hached. 
-This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-01:00 and closed on []. 
-To get there, use these GPS coordinates: 35.853448082385, 10.596623390354. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Op%C3%A9ra/data=!4m7!3m6!1s0x12fd8a6a00474287:0xc5d9d009b7baf83c!8m2!3d35.8536916!4d10.5972324!16s%2Fg%2F11ckrdd4bj!19sChIJh0JHAGqK_RIRPPi6twnQ2cU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 633 458.</t>
+          <t>Cafe Opera, a 4.8-rated cafe located at Rue Farhat Hached, Hammam Sousse, Tunisia, operates from 7 AM to 1 AM daily. It offers a cozy ambiance and serves a variety of beverages and light refreshments.</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4215,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe THEATRO Sousse located at VHRV+FRJ Cafe THEATRO Sousse, Hammam Sousse 4011. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at or call them at 55 665 593.</t>
+          <t>Cafe THEATRO Sousse is a cafe located in Hammam Sousse, Tunisia. It is open 24 hours a day and offers a variety of services, including food, drinks, and live music. The cafe is located at coordinates (35.8626374, 10.5828884).</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4322,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out L'atelier cafe located at VH4W+WJ6 L'atelier cafe, Hammam Sousse. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-00:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://m.facebook.com/Latelier-caf%25C3%25A9-235310460317014/ or call them at 20 554 949.</t>
+          <t>Located in Hammam Sousse (lon: 10.5922801, lat: 35.8640797), L'atelier cafe is a great place to relax and enjoy a cup of coffee. It has a rating of 5.0 stars, and is open from 7:30am to midnight every day. L'atelier cafe also has a website and a Facebook page.</t>
         </is>
       </c>
     </row>
@@ -4456,9 +4421,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great cafe, check out Cafe Bastarito located at VJ77+XF5 Rue Bastarito. 
-This top-rated destination is perfect for cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on []. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bastarito/data=!4m7!3m6!1s0x12fd8b72be5a919f:0x6fab020ecac93584!8m2!3d35.8648824!4d10.6137261!16s%2Fg%2F11j_tvzfh_!19sChIJn5FavnKL_RIRhDXJyg4Cq28?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Bastarito is located in hammam sousse, Tunisia. Situated at (35.8640797, 10.5922801), it's a cafe that has a 5-star rating.</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4520,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse, check out Caffe Diesel located at VHPR+GJP Caffe Diesel. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Caffe Diesel is a 5.0-rated cafe located in Hammam Sousse (35.8640797, 10.5922801) that is open from 7:00 AM to 1:00 AM. It is featured on Google Maps as a cafe.</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4615,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Cafe, then Cafe Bhair located at VH8W+FM2 is a must-visit. It offers a range of Cafe to choose from and has a rating of 4.0. Cafe Bhair is open during these hours: 07:00-02:00, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bha%C3%AFr/data=!4m7!3m6!1s0x12fd8a3d8e9fa3ef:0x19a73ca737fc39ab!8m2!3d35.8661284!4d10.5966421!16s%2Fg%2F11csc7fw1t!19sChIJ76Ofjj2K_RIRqzn8N6c8pxk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>This well-rated Cafe Bhair is located in Hammam Sousse, Tunisia and offers a decent range of services to its customers. It has one review, and the owner is Cafe Bhair (proprietaire). The cafe is open from 7 am to 2 am, and it is closed on all days of the week. You can find Cafe Bhair at VH8W+FM2, Hammam Sousse.</t>
         </is>
       </c>
     </row>
@@ -4751,9 +4714,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a Cafe, check out Cafe degla located at Bd Abdelkader Daghrir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-23:30. To get there, use these GPS coordinates: (35.8626374, 10.5828884). For more details, visit their website or call them at .</t>
+          <t>Cafe degla is a popular cafe in Hammam Sousse, Tunisia. Located at Bd Abdelkader Daghrir, it offers a cozy atmosphere and a variety of drinks and snacks. The cafe is open from 5:00 AM to 11:30 PM and is closed on Tuesdays. Cafe degla is a great place to relax and enjoy a cup of coffee or tea with friends. Its convenient location and late closing time also make it a good spot for a late-night hangout.</t>
         </is>
       </c>
     </row>
@@ -4856,9 +4817,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Jazz Cafe located at VJF2+HM9 Jazz Cafe, Hammam Sousse. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/Jazz+Caf%C3%A9/data=!4m7!3m6!1s0x12fd8bf7755147c3:0xdbcbbd08cac6f3ea!8m2!3d35.8739838!4d10.6016682!16s%2Fg%2F11tgd66p1g!19sChIJw0dRdfeL_RIR6vPGygi9y9s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 405 204.</t>
+          <t>**Jazz Cafe** is a cafe located in Hammam Sousse. A place to enjoy a breakfast and listen to good music. Our cafe is opened from 06:00-01:00, 7 days a week. With over 150 reviews on our google business profile, our customers raves about our prices, the quality of our service and the atmosphere.</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4916,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a great Cafe, check out SUN STREET CAFE &amp; RESTAURANT located at VJ66+PHQ SUN STREET CAFE &amp; RESTAURANT, Av. 14 Janvier, Hammam Sousse. With a rating of 4.4, it's a must-visit spot with 38 reviews. To get there, use these GPS coordinates: 51.6867027, -0.001502. For more details, visit their website or call them at 26 503 502.</t>
+          <t>SUN STREET CAFE &amp; RESTAURANT is a popular cafe located in hammam sousse, Tunisia, with a 4.4-star rating based on 38 reviews. It specializes in local cuisine and is known for its cozy ambiance and friendly service.</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5019,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you are in hammam sousse and looking for a great Cafe, check out Colombus cafe Sousse. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it is a must-visit spot. It is open during these hours: 07:00-02:00, but closed on []. To get there, use these GPS coordinates: 35.8293001, 10.6406309. You can also call them at 54 584 584 for more information.</t>
+          <t>Colombus cafe Sousse is a cafe located in hammam sousse, Tunisia at the coordinates (35.8293001, 10.6406309). It is one of the best cafes in the area with a rating of 4.1 based on 35 reviews. The cafe offers a variety of coffee and tea drinks, as well as light snacks and pastries. It is a popular spot for coffee lovers and offers a cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5126,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse, try La boheme cafe restaurant located at VJ24+JHG La boheme cafe restaurant, Hammam Sousse. This top-rated spot is perfect for Salon de the lovers and also serves Cafe. With a high rating of 4.3, it's definitely worth checking out. Its hours of operation are from 08:00-23:00, but it's closed on . GPS coordinates: (35.8640797, 10.5922801).</t>
+          <t>La Bohème Cafe Restaurant is a 4.3-rated establishment located at VJ24+JHG in Hammam Sousse, Tunisia, offering tea and coffee. It is open from 8 AM to 11 PM and has garnered 34 reviews.</t>
         </is>
       </c>
     </row>
@@ -5270,9 +5229,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great cafe to relax and enjoy a coffee, check out Cafe Les Amis at Cafe Les Amis, Hammam Sousse, Sousse 4011. 
-This top-rated cafe is perfect for cafe lovers and offers a range of cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on []. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, call them at 25 441 039.</t>
+          <t>Cafe Les Amis is a cafe located in Hammam Sousse, Sousse, Tunisia. It is open from 06:30 to 00:00 and offers a variety of food and drinks. The cafe has a rating of 4.1 stars and has 14 reviews on Google. Its coordinates are (35.8626374, 10.5828884).</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5332,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated hotel, check out Iberostar Selection Kantaoui Bay located at Iberostar Selection Kantaoui Bay, Jinene El Kantaoui, Hammam Sousse B.P. 243 Tunez, 4089. This 4.8-rated destination is perfect for hotel lovers. It's open 24/7 and closed on None. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at https://www.iberostar.com/en/hotels/sousse/iberostar-kantaoui-bay/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_TUN_TUN_SOU_KAN_PULL_NA_NA_NA_NA_NA or call them at 73 246 477.</t>
+          <t>The Iberostar Selection Kantaoui Bay is a stunning 4.8-rated hotel situated in Jinene El Kantaoui, Hammam Sousse. Boasting a prime location near the Mediterranean Sea, this waterfront hotel offers breathtaking views and easy access to the beach. Guests can indulge in a plethora of amenities, including a luxurious spa, multiple pools, and a variety of dining options. The hotel's dedicated staff provides exceptional service, ensuring a memorable and rejuvenating stay.</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5439,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Located in Hammam Sousse, Hotel Marhaba Salem is a top-rated destination for Hotel lovers. With a rating of 4.4 based on 1662 reviews, this luxurious beachfront hotel offers a range of amenities including both indoor and outdoor pools, a spa, four restaurants, and three bars.  For more details, visit their website at http://www.marhabasalem.tn/ or call them at 73 240 966.</t>
+          <t>Hotel Marhaba Salem is a beachfront hotel located in Hammam Sousse, Tunisia. It offers indoor and outdoor pools, a spa, 4 restaurants, and 3 bars. The hotel has received 1662 reviews, with an average rating of 4.4. The hotel is located at coordinates (35.8465978, 10.6195667).</t>
         </is>
       </c>
     </row>
@@ -5589,9 +5546,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and seeking luxurious accommodation, look no further than Concorde Green Park Palace, situated at Rue Morjan B.P. Box. 95 Port. 
-This upscale beachfront hotel boasts elegant rooms and suites, multiple dining options, refreshing bars, and a sparkling pool. 
-Highly rated with a remarkable 4.2 out of 5, it's an ideal haven for those seeking comfort and tranquility. Visit their website at https://www.barcelo.com/en-ww/barcelo-concorde-green-park-palace/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dmy_business%26utm_content%3D30844 for more information or call them at 36 030 000 to make reservations.</t>
+          <t>**Concorde Green Park Palace** is a luxurious beachfront hotel in Hammam Sousse, offering elegant rooms and suites, delectable restaurants, bars, a rejuvenating pool, and a prime location near the port. With its convenient access to the city's attractions and its unparalleled amenities, it appeals to discerning travelers seeking a remarkable stay in the heart of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5645,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>In hammam sousse, Dar Hkaiem is a top-rated destination for Chambre d'hotes lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.853644323219, 10.592130598653. For more details, visit their website at https://www.google.com/maps/place/Dar+Hka%C3%AFem/data=!4m10!3m9!1s0x12fd8b2c001bc4bb:0xe5e095c380b20ba5!5m2!4m1!1i2!8m2!3d35.8569077!4d10.5892135!16s%2Fg%2F11j8k7_0v3!19sChIJu8QbACyL_RIRpQuygMOV4OU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 957 111.</t>
+          <t>Dar Hkaiem is a 4.7-rated bed and breakfast located in Hammam Sousse, Tunisia (GPS: 35.853644323219, 10.592130598653). It offers a unique cultural experience with its traditional Tunisian architecture and décor. Guests can enjoy a delightful breakfast in the mornings and appreciate the cleanliness of the establishment. Dar Hkaiem is a great place for travelers looking to immerse themselves in the local culture and make the most of their vacation.</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5744,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Villa Hamandi located at 26, RUE ABDEL MOUMEN IBN ALI, Hammam Sousse 4011. This top-rated destination is perfect for Residence hoteliere lovers and offers a range of Residence hoteliere to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.866730011006, 10.601855428238. For more details,  call them at +33 6 03 23 18 23.</t>
+          <t>Villa Hamandi is a residence hoteliere located in Hammam Sousse, Tunisia.  It has 13 reviews and a 4.6-star rating.  The residence offers a variety of amenities, including a swimming pool, a restaurant, and a bar. It is situated near the beach and offers easy access to a variety of shops and restaurants.</t>
         </is>
       </c>
     </row>
@@ -5884,8 +5839,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Hotel, check out Residence House VIP located at 85 Rte de la Plage, Hammam Sousse. It offers a range of categories to choose from, perfect for Hotel lovers. With a rating of 4.9, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.864341797244, 10.606540660656. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+House+VIP/data=!4m10!3m9!1s0x12fd8b4a907768e3:0x19928319e245d077!5m2!4m1!1i2!8m2!3d35.864385!4d10.6066368!16s%2Fg%2F11h4xhf8z6!19sChIJ42h3kEqL_RIRd9BF4hmDkhk?authuser=0&amp;hl=fr&amp;rclk=1 or call 
-them at nan.</t>
+          <t>The Residence House VIP, located in Hammam Sousse, is a hotel offering a 4.9 rating with 9 reviews. Immerse yourself in the heart of Sousse, enjoying the hotel's convenient proximity to the beach.</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5934,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Hotel, check out Sunset Beach Apartment located at Sunset Beach Apartment, Zone Touristique, 4011, Rte de la Plage, Hammam Sousse. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 20.8994526, 102.0493032.</t>
+          <t>Sunset Beach Apartment is a 4-star hotel located on Sunset Beach in Hammam Sousse, Tunisia. It is perfect for relaxation and unwinding, with beautiful views of the sea and a private beach where guests can enjoy sunbathing, swimming or just relaxing in the shade. The hotel also offers a wide range of activities, including a fitness center, tennis court, and swimming pool, as well as a restaurant and bar. The rooms are spacious and comfortable, with air conditioning, satellite TV, and free Wi-Fi.</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6029,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to stay, check out Hannibal palace located at VHXJ+73H Hannibal palace. This top-rated destination is perfect for Hotel lovers and offers a rating of 4.3. To get there, use these GPS coordinates: 35.859477500235, 10.587644341368. For more details, visit their website at https://www.google.com/maps/place/Hannibal+palace/data=!4m10!3m9!1s0x12fd89c8f412680d:0x186a01d3b9a24f59!5m2!4m1!1i2!8m2!3d35.8981817!4d10.5802295!16s%2Fg%2F11l24h5csr!19sChIJDWgS9MiJ_RIRWU-iudMBahg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Hannibal palace is a 4.3 stars rated hotel located in Hammam Sousse (Tunisia), at the coordinates (35.859477500235, 10.587644341368). Furthermore, this hotel allows you to enjoy a pleasant stay in the city of Hammam Sousse and offers a wide range of services and amenities to ensure your comfort and satisfaction.</t>
         </is>
       </c>
     </row>
@@ -6178,9 +6132,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated hotel, check out Iberostar Selection Kantaoui Bay located at Iberostar Selection Kantaoui Bay, Jinene El Kantaoui, Hammam Sousse B.P. 243 Tunez, 4089. 
-This destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at https://www.iberostar.com/en/hotels/sousse/iberostar-kantaoui-bay/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_TUN_TUN_SOU_KAN_PULL_NA_NA_NA_NA_NA or call them at 73 246 477.</t>
+          <t>The Iberostar Selection Kantaoui Bay, a 4.8 stars hotel in hammam sousse, Tunisia, offers a wide range of services and activities to make your stay enjoyable. The hotel is conveniently located near the beach and offers a variety of water sports, as well as a swimming pool, a fitness center, and a spa. The hotel also has a variety of restaurants and bars, as well as a nightclub. The staff is friendly and helpful, and the rooms are clean and well-maintained. The hotel is a great place to stay for families, couples, and business travelers alike.</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6239,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated hotel, check out Hotel Marhaba Salem located at Boulevard 14 Janvier 4039 Sousse, Hammam Sousse 4039. It's a great destination for hotel lovers and offers a range of amenities to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.8465978, 10.6195667. For more details, visit their website at http://www.marhabasalem.tn/ or call them at 73 240 966.</t>
+          <t>Hotel Marhaba Salem, located in 4039 Hammam Sousse (Tunisia), is a beachfront hotel with 1662 reviews on Google, rated 4.4/5. It features four restaurants, three bars, a spa, and both indoor and outdoor swimming pools. You can enjoy entertainment options such as dancing, darts, archery, and aquagym on-site. The hotel is within walking distance of the beach and conveniently accessible by car or train.</t>
         </is>
       </c>
     </row>
@@ -6394,7 +6346,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated hotel, check out Concorde Green Park Palace located at Rue Morjan B.P. Box. 95 Port. This luxurious beachfront hotel offers chic rooms and suites, multiple restaurants, bars, and a swimming pool. With 1388 reviews and a rating of 4.2, it's a must-visit spot for hotel lovers. For more details, visit their website at https://www.barcelo.com/en-ww/barcelo-concorde-green-park-palace/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dmy_business%26utm_content%3D30844 or call them at 36 030 000.</t>
+          <t>The Concorde Green Park Palace is a luxury beachfront hotel located in hammam sousse. It offers stylish rooms and suites, multiple restaurants, bars, a swimming pool, and a golf course amidst other amenities. The hotel has received 1388 reviews and has a rating of 4.2 stars. Its coordinates are (35.8867247, 10.5908411).</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6445,18 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a cozy place to stay, check out Dar Hkaiem located at Rue du Sahloul,. This top-rated destination is perfect for travelers and offers a range of amenities including Wi-Fi. With a rating of 4.7, it's a must-visit spot for visitors to hammam sousse. To get there, use these GPS coordinates: 35.853644323219, 10.592130598653. For more details, visit Dar Hkaiem's website at https://www.google.com/maps/place/Dar+Hka%C3%AFem/data=!4m10!3m9!1s0x12fd8b2c001bc4bb:0xe5e095c380b20ba5!5m2!4m1!1i2!8m2!3d35.8569077!4d10.5892135!16s%2Fg%2F11j8k7_0v3!19sChIJu8QbACyL_RIRpQuygMOV4OU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 957 111.</t>
+          <t>**Dar Hkaiem**
+Dar Hkaiem is a charming guest house located in Hammam Sousse, Tunisia. Situated in the heart of the city, it offers a unique and authentic cultural experience. With 58 positive reviews and a 4.7-star rating, it stands out for its cozy atmosphere, attentive staff, and convenient amenities.
+**Location:**
+Dar Hkaiem is conveniently situated near cultural attractions and transportation hubs, allowing guests to easily explore the city and its surroundings.
+**Amenities:**
+The guest house features a range of amenities to ensure a comfortable stay, including free Wi-Fi, a rooftop terrace, and a traditional lounge. Its spacious and well-appointed rooms provide a serene retreat for relaxation.
+**Highlights:**
+* Authentic cultural experience in a traditional setting
+* Excellent location with easy access to local attractions
+* Comfortable accommodations with modern amenities
+* Friendly and helpful staff
+* Highly recommended by previous guests</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6563,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated hotel, check out Hotel Marhaba Salem located at Boulevard 14 Janvier 4039 Sousse, Hammam Sousse 4039. This 4.4-rated destination is perfect for hotel lovers and offers a range of categories to choose from. For more details, visit their website at http://www.marhabasalem.tn/ or call them at 73 240 966.</t>
+          <t>Hotel Marhaba Salem is a 4-star hotel located in Hammam Sousse, Tunisia, offering a wide range of amenities for guests. It boasts an idyllic beachfront location, along with indoor and outdoor swimming pools, a rejuvenating spa, four diverse restaurants, and three inviting bars. With its convenient location and an array of facilities, Hotel Marhaba Salem is the perfect choice for a memorable and relaxing vacation. Situated at the coordinates (35.8465978, 10.6195667), this hotel is ideally positioned for exploring the local area and enjoying the vibrant atmosphere of Hammam Sousse.</t>
         </is>
       </c>
     </row>
@@ -6707,8 +6670,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great hotel, check out Hotel Marhaba Salem located at Boulevard 14 Janvier 4039 Sousse, Hammam Sousse 4039. This top-rated destination is perfect for hotel lovers and offers a range of hotel categories to choose from. With a rating of 4.4, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.8465978, 10.6195667. For more details, visit their website at  http://www.marhabasalem.tn/ or call them at 73 240 966</t>
+          <t>Nestled along the captivating beachfront in Hammam Sousse, Hotel Marhaba Salem is a haven of tranquility and entertainment. With its captivating indoor and outdoor pools, guests can bask in the refreshing coolness while soaking up the sun's warmth. The hotel indulges its guests with a rejuvenating spa, promising moments of pure relaxation. Gastronomes will delight in the culinary creations crafted at its four exquisite restaurants, while thirst-quenching libations await at its three inviting bars. With its prime location and array of amenities, Hotel Marhaba Salem offers a memorable and rejuvenating getaway.</t>
         </is>
       </c>
     </row>
@@ -6815,7 +6777,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great hotel, Hotel Marhaba Salem is a must-visit spot. Located at Boulevard 14 Janvier 4039 Sousse, Hammam Sousse 4039, this top-rated hotel offers a range of amenities for a perfect stay. It has a rating of 4.4 and features indoor and outdoor pools, a spa, four restaurants, and three bars. Hotel Marhaba Salem is open 24/7 and can be reached at 73 240 966 for more information.</t>
+          <t>The Hotel Marhaba Salem is situated in Hammam Sousse, Tunisia. It is a 4.4-star hotel that offers a range of amenities, including indoor and outdoor swimming pools, a spa, 4 restaurants, and 3 bars. The hotel is located on the beach and offers stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -6922,7 +6884,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated hotel, check out Hotel Marhaba Salem located at Boulevard 14 Janvier 4039 Sousse, Hammam Sousse 4039. This popular destination is perfect for hotel lovers. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.8465978, 10.6195667. For more details, visit their website at http://www.marhabasalem.tn/ or call them at 73 240 966.</t>
+          <t>Hotel Marhaba Salem is a beachfront hotel set in Hammam Sousse, it has many facilities to offer such as indoor and outdoor pools, a spa, 4 restaurants as well as 3 bars. Situated on the coordinates (35.8465978, 10.6195667), this 4.4-rated hotel has received 1662 reviews and is well-known for its entertainment activities with its animation team organizing various activities such as zumba, dancing, and archery.</t>
         </is>
       </c>
     </row>
@@ -7029,9 +6991,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a perfect hotel, check out Hotel Marhaba Salem located at Hotel Marhaba Salem, Boulevard 14 Janvier 4039 Sousse, Hammam Sousse 4039. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.8465978, 10.6195667. For more details, visit their website at http://www.marhabasalem.tn/ or call them at 73 240 966.</t>
+          <t>Hotel Marhaba Salem is a beachfront hotel located in Hammam Sousse, Tunisia (35.8465978, 10.6195667). It features both indoor and outdoor pools, a spa, 4 restaurants, and 3 bars. With a rating of 4.4 based on 1662 reviews, this hotel is highly rated for its entertainment options, including animation, dancing, and aquagym.</t>
         </is>
       </c>
     </row>
@@ -7130,7 +7090,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and searching for a charming place to stay, consider Dar Hkaiem located at Rue du Sahloul, Hammam Sousse. This highly-rated Chambre d'hotes has a rating of 4.7, making it a popular choice among travelers. It's open during specific hours but closed on certain days. To get there, use these GPS coordinates: (35.853644323219, 10.592130598653). For more details, visit its website or call 99 957 111.</t>
+          <t>Dar Hkaiem is a small hotel located in Hammam Sousse, Tunisia. It offers a unique cultural experience, with a focus on traditional Tunisian architecture and hospitality. Guests can enjoy a variety of amenities, including a rooftop terrace, a library, and a hammam. Dar Hkaiem is also conveniently located near the beach and other attractions.</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7193,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Location d'appartement de vacances, check out El Kantaoui - Maisons de la Mer located at VHWW+GF2 El Kantaoui - Maisons de la Mer. With a rating of 3.8, it's a must-visit spot for those who love Location d'appartement de vacances. To get there, use these GPS coordinates: 35.88853, 10.58748. For more details, visit their website at http://www.maisonsdelamer.com.tn/ or call them at 58 202 244.</t>
+          <t>El Kantaoui - Maisons de la Mer is a 3.8-rated vacation rental apartment located in Hammam Sousse, Tunisia, at the coordinates (35.88853, 10.58748). It offers a variety of amenities and services, including a website (http://www.maisonsdelamer.com.tn/), a phone number (58 202 244), and an address (VHWW+GF2 El Kantaoui - Maisons de la Mer, Hammam Sousse). The rental has received 94 reviews, with some mentioning the price as a notable aspect.</t>
         </is>
       </c>
     </row>
@@ -7336,9 +7296,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great meal, check out Cafe Resto Mer Soleil located at Cafe Resto Mer Soleil, Plage Cleopatre, rue du requin hammam-sousse, Hammam Sousse 4011. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website or call them at 98 228 889.</t>
+          <t>Cafe Resto Mer Soleil is a restaurant located in Hammam Sousse, Tunisia ( 35.8626374, 10.5828884 ). It has a rating of 3.6 based on 50 reviews and is open from 7:00 AM to 12:00 AM daily. The restaurant's primary category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -7437,9 +7395,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a good Location de terrain, check out Appartement Ahlem located at Appartement Ahlem, Acces de la mer du nord hammam sousse, 4011. 
-This top-rated destination is perfect for Location de terrain lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, call them at 98 707 331.</t>
+          <t>Appartement Ahlem is a rental property located in hammam sousse, Tunisia. It's located at (35.8626374, 10.5828884) and offers a 5-star rating based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -7542,9 +7498,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out El Kantaoui - Maisons de la Mer located at VHWW+GF2 El Kantaoui - Maisons de la Mer, Hammam Sousse. 
-This top-rated destination is perfect for Location d'appartement de vacances lovers and offers a range of categories to choose from. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.88853, 10.58748. For more details, visit their website at http://www.maisonsdelamer.com.tn/ or call them at 58 202 244.</t>
+          <t>El Kantaoui - Maisons de la Mer is a 3.8-rated vacation apartment rental located in Hammam Sousse, Tunisia. Situated at coordinates (35.88853, 10.58748), it offers 94 reviews, has a website, and is owned by El Kantaoui - Maisons de la Mer (proprietaire). The primary category is vacation apartment rental, and reviews often mention the price.</t>
         </is>
       </c>
     </row>
@@ -7647,9 +7601,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a place to grab a bite, check out Cafe Resto Mer Soleil at Plage Cleopatre, rue du requin hammam-sousse. 
-This popular Restaurant is perfect for those who love great food and offers a delicious menu to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at or call them at 98 228 889.</t>
+          <t>The restaurant Cafe Resto Mer Soleil is located in Hammam sousse, Tunisia, whose coordinates are (35.8626374, 10.5828884). Its main category is Restaurant and it also serves a variety of dishes. This restaurant has received 3.6 out of 5 stars and has 50 reviews.</t>
         </is>
       </c>
     </row>
@@ -7752,7 +7704,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out LE MEROU Restaurant et Poissonnerie located at WH8F+78M LE MEROU Restaurant et Poissonnerie, Unnamed Road, Hammam Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of choices. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 98 100 347.</t>
+          <t>LE MEROU is a restaurant and fish store located in Hammam Sousse, Tunisia. The restaurant offers a variety of seafood dishes, including salads, grilled fish, and seafood platters. The fish store sells fresh fish and seafood, as well as prepared dishes such as fish soup and fish cakes. LE MEROU is located at WH8F+78M Unnamed Road, Hammam Sousse, and is open from 10:00am to 12:00am (midnight).</t>
         </is>
       </c>
     </row>
@@ -7859,10 +7811,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse, Restaurant L'OLIVIER located at VHVW+CJ8 Restaurant L'OLIVIER, Hammam Sousse, is a highly rated seafood restaurant. 
-With a rating of 3.5 and 23 reviews, it offers a range of seafood dishes to choose from.
-The restaurant is open daily from 12:00 PM to 1:30 AM. 
-For more details, visit their website at https://www.facebook.com/profile.php?id=100091831763855&amp;mibextid=LQQJ4d or call them at 55 242 488.</t>
+          <t>Restaurant l'Olivier is a renowned seafood restaurant located in Hammam Sousse, Tunisia. It boasts a 3.5-star rating based on 23 reviews and offers a delectable menu of seafood dishes. The restaurant is strategically situated at VHVW+CJ8 and is easily accessible to its patrons. The restaurant is renowned for its impeccable service, with reviewers frequently praising the attentiveness and friendliness of the staff. With its convenient location, delectable seafood offerings, and exceptional service, Restaurant l'Olivier is an excellent choice for a memorable dining experience in the heart of Hammam Sousse.</t>
         </is>
       </c>
     </row>
@@ -7969,7 +7918,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a delightful dining experience, check out Restaurant Le Mediterranee located at BP 119 Port El Kantaoui 4089 Sousse. This top-rated restaurant is perfect for Restaurant and Restaurant mediterraneen enthusiasts, offering a range of delectable dishes to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-21:30, but closed on lundi. For more details, visit their website at http://www.lemediterranee.com.tn/ or call them at 27 135 135.</t>
+          <t>Restaurant Le Mediterranee is a restaurant located in Hammam Sousse, Tunisia (35.89957095, 10.5772884). It offers Mediterranean and seafood cuisine and has a rating of 4.4 stars based on 554 reviews. The restaurant is open from 12:00-21:30 every day except Monday and is known for its service, wine selection, port views, and high-quality seafood dishes.</t>
         </is>
       </c>
     </row>
@@ -8072,9 +8021,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Restaurant Le QG located at VJ95+8W9 Restaurant Le QG, Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 3.4, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at or call them at 58 932 000.</t>
+          <t>Restaurant Le QG is located in Hammam Sousse, Tunisia, with the coordinates (35.8640797, 10.5922801). This restaurant offers dining services at a price reviewed as good by customers. It is open daily from 12:00-00:00 and offers a variety of entrees, wines, and other menu items. Reviewers have mentioned keywords such as "prix," "plage," "serveurs," "experience," and "entree" as common topics in reviews of this restaurant.</t>
         </is>
       </c>
     </row>
@@ -8181,9 +8128,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Restaurant, check out Restaurant Les Emirs located at Hammam Sousse. 
-This popular destination offers a range of Restaurant categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 73 348 700.</t>
+          <t>Restaurant Les Emirs is located in Hammam Sousse, Tunisia. It offers a variety of dishes, including poisson, couscous, and entree. The restaurant has received 245 reviews and has a rating of 4.1 out of 5. It is open from 09:00 to 00:00 and is closed on Fridays. The restaurant's phone number is 73 348 700 and its website is https://best--restaurants.blogspot.com/.</t>
         </is>
       </c>
     </row>
@@ -8286,9 +8231,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in Hammam sousse and looking for a great Restaurant experience, head to Restaurant La Daurade. Located at VHVX+RFC, this top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open from 12:00-00:00 on weekdays and closed on . 
-To get there, use these GPS coordinates: 35.8940156, 10.5970822.
-For more details, visit their website or call them at 73 348 893.</t>
+          <t>Restaurant La Daurade is a renowned establishment nestled in Hammam Sousse, Tunisia, renowned for its exceptional dining experiences. Situated at coordinates (35.8940156, 10.5970822), it offers a delectable menu featuring an array of culinary delights. With a focus on fresh seafood, the restaurant serves up mouthwatering dishes that have garnered high praise from patrons.</t>
         </is>
       </c>
     </row>
@@ -8391,9 +8334,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a perfect Location d'appartement de vacances, check out El Kantaoui - Maisons de la Mer located at VHWW+GF2 El Kantaoui - Maisons de la Mer, Hammam Sousse. 
-This top-rated destination has a rating of 3.8 and offers a range of categories to choose from. 
-To get there, use these GPS coordinates: 35.88853, 10.58748. For more details, visit their website at http://www.maisonsdelamer.com.tn/ or call them at 58 202 244.</t>
+          <t>Located on the Mediterranean coast in Hammam Sousse, Tunisia, El Kantaoui - Maisons de la Mer offers vacation apartment rentals. With 94 reviews and a 3.8 rating, this location is well-rated among guests, and is a great option for those looking for a vacation rental in the area.</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8437,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to eat, head to Restaurant El Pescador located at Unnamed Road, Hammam Sousse. This top-rated restaurant has a rating of 3.9, making it a must-visit spot for food lovers. It's open during these hours: , but closed on  . To get there, use these GPS coordinates: 35.8344829, 10.6363323. For more details, visit their website at https://restaurantelpescador-restaurant.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral or call them at 52 090 808.</t>
+          <t>The Restaurant El Pescador is a highly-rated restaurant with 67 reviews and a 3.9-star rating. Located in Hammam Sousse in Tunisia, this restaurant specializes in fish and offers a variety of options including entrees, wines, and traditional Tunisian dishes. With its convenient location and focus on fresh seafood, this restaurant is a great choice for both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8544,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Restaurant Le Capoul Beach located at Impasse du, rue du requin hammam-sousse, Hammam Sousse 4000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.86262835, 10.6119869. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 29 004 156.</t>
+          <t>**Restaurant Le Capoul Beach** is a restaurant located at Impasse du, rue du requin hammam-sousse, Hammam Sousse 4000. It is a popular spot for locals and tourists alike, offering a variety of seafood dishes with panoramic views of the Mediterranean Sea. The restaurant has a 4.2 rating on Google and is open daily from 7:00 AM to 11:00 PM.</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8647,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to eat, check out Cafe Resto Mer Soleil located at Plage Cleopatre, rue du requin hammam-sousse, Hammam Sousse 4011. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Resto+Mer+Soleil/data=!4m7!3m6!1s0x12fd8b594848450f:0xc337aaaf7534870d!8m2!3d35.8698466!4d10.6081839!16s%2Fg%2F11kn63rw01!19sChIJD0VISFmL_RIRDYc0da-qN8M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 228 889.</t>
+          <t>Cafe Resto Mer Soleil is a restaurant located in hammam sousse (35.8626374, 10.5828884). It's rating is 3.6 stars and is open from 7AM to Midnight.</t>
         </is>
       </c>
     </row>
@@ -8813,7 +8754,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great seafood dining experience, check out Restaurant L'OLIVIER located at VHVW+CJ8 Restaurant L'OLIVIER, Hammam Sousse. This top-rated spot is perfect for seafood lovers and offers a range of delicious dishes to choose from. With a rating of 3.5, it's a must-visit spot. It's open during these hours: 12:00-01:30, but closed on . To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.facebook.com/profile.php?id=100091831763855&amp;mibextid=LQQJ4d or call them at 55 242 488.</t>
+          <t>Restaurant L'OLIVIER is a seafood restaurant located in Hammam Sousse, Tunisia. It offers a variety of seafood dishes, with a focus on grilled fish and seafood platters. The restaurant has a 3.5 rating on Google Reviews, with many reviewers praising the quality of the food and the friendly service. It is located at VHVW+CJ8, Hammam Sousse and is open from 12:00 PM to 1:30 AM.</t>
         </is>
       </c>
     </row>
@@ -8908,8 +8849,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Plage Chott Mariem located at WHR5+2F6 Plage Chott Mariem, Hammam Sousse. This top-rated destination is perfect for Terrain de beach-volley lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.858835305953, 10.599373630527. For more details, visit their website at https://www.google.com/maps/place/Plage+Chott+Mariem/data=!4m7!3m6!1s0x12fd89553c606f75:0x8e201d476afa0fe!8m2!3d35.9400264!4d10.5586502!16s%2Fg%2F11fmvjqs3f!19sChIJdW9gPFWJ_RIR_qCvdtQB4gg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Plage Chott Mariem, located at WHR5+2F6 in Hammam Sousse, Tunisia, offers the ultimate beach volleyball experience. With its rating of 4.3 out of 5 based on 21 reviews, this spot is highly recommended. The beach offers a lively atmosphere and is the perfect place to enjoy the sun, sand, and sea while engaging in some friendly competition or practicing your volleyball skills.</t>
         </is>
       </c>
     </row>
@@ -9008,10 +8948,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and seeking something interesting to do, head to I LOVE H.SOUSSE located at VJC5+3C3 I LOVE H.SOUSSE, Hammam Sousse. 
-This top-rated destination is ideal for Musee enthusiasts. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit whenever you like. 
-To get there, use these GPS coordinates: (35.794303913505, 10.610499265888).</t>
+          <t>I LOVE H.SOUSSE is a museum located in Hammam Sousse, Tunisia. The museum's exact address is VJC5+3C3, and its coordinates are (35.794303913505, 10.610499265888). The museum is open 24 hours a day and has a rating of 5.0 out of 5 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9043,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out lmnr@ lighthouse phare located at VJV2+2F8 lmnr@ lighthouse phare, Camel Riding, Port El Kantaoui. This top-rated destination is perfect for Port de plaisance lovers and offers a range of Port de plaisance, Musee maritime, Musee to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.89239, 10.59434. For more details, visit their link at https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%86%D8%A7%D8%B1%D8%A9+lighthouse+phare%E2%80%AD/data=!4m7!3m6!1s0x12fd8993894690cf:0xd11ba4246ec156fc!8m2!3d35.8925284!4d10.6011941!16s%2Fg%2F11h_vvq93m!19sChIJz5BGiZOJ_RIR_FbBbiSkG9E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>lmnr@ lighthouse phare is a 4.3-rated port and maritime museum located in Hammam Sousse, Tunisia. It offers a variety of maritime-related exhibits and activities, and is a popular destination for tourists and locals alike. The port is located at VJV2+2F8 Camel Riding, Port El Kantaoui, and is open daily.</t>
         </is>
       </c>
     </row>
@@ -9205,9 +9142,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out I LOVE H.SOUSSE located at VJC5+3C3 I LOVE H.SOUSSE, Hammam Sousse. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.794303913505, 10.610499265888. For more details, visit their website at https://www.google.com/maps/place/I+LOVE+H.SOUSSE/data=!4m7!3m6!1s0x12fd8b9410928821:0xa46ee6c09194c429!8m2!3d35.870127!4d10.608549!16s%2Fg%2F11j0twyn4v!19sChIJIYiSEJSL_RIRKcSUkcDmbqQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>I LOVE H.SOUSSE is a renowned museum located in Hammam Sousse, Tunisia. The museum's precise location is at the coordinates (35.794303913505, 10.610499265888) within the city. It boasts a splendid featured image that showcases its beauty, drawing attention to its significance as a cultural landmark. The museum operates 24 hours a day, making it accessible to visitors at any time. I LOVE H.SOUSSE has received an exceptional rating of 5.0, indicating its excellence and popularity among travelers.</t>
         </is>
       </c>
     </row>
@@ -9314,9 +9249,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Port El Kantaoui located at Port El Kantaoui, Hammam Sousse. 
-This top-rated destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.89239, 10.59434. For more details, visit their website at http://www.portelkantaoui.com.tn/ or call them at 73 348 600.</t>
+          <t>Port El Kantaoui is a popular tourist destination located in Hammam Sousse, Tunisia. The port features a marina, esplanades along the waterfront, shops, restaurants, and cafes. It is known for its lively atmosphere, with many visitors enjoying the yachts and catamarans that are often docked in the marina. The port is also home to a theme park and a beach, making it a great place for families to visit.</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9352,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Shopping Center Ali Baba located at Hammam Sousse. This top-rated destination is perfect for Centre commercial lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-17:00, but closed on . To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Nestled in the heart of Hammam Sousse, Tunisia, at the coordinates (35.8640797, 10.5922801), Shopping Center Ali Baba stands as a renowned hub for tourists seeking a one-stop shopping destination. With its extensive range of souvenirs, from traditional handicrafts to delectable treats, this vibrant center caters to every need. Its convenient location makes it easily accessible, allowing visitors to delve into the vibrant local culture and indulge in bargains at every turn.</t>
         </is>
       </c>
     </row>
@@ -9526,7 +9459,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a thrilling day out, head to Acqua Palace located at Rue des Palmiers, BP 171, Port, Hammam Sousse 4089. This top-rated water park is perfect for all water lovers and offers a range of attractions to choose from, including wave pools, water slides, and lazy rivers. With a rating of 4.0, it's a must-visit spot for a fun-filled day. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at https://www.acquapalace.com/ or call them at 73 348 855.</t>
+          <t>Acqua Palace is an exciting water park situated in Hammam Sousse, Tunisia. Located at (35.8867247, 10.5908411), it boasts a range of thrilling attractions, including a wave pool, towering slides, and twisting flumes. Visitors can enjoy a fun-filled day splashing in the crystal-clear waters, seeking adrenaline-pumping adventures, and indulging in delicious meals at the on-site restaurant.</t>
         </is>
       </c>
     </row>
@@ -9633,9 +9566,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Parc de loisirs Hadhood located at Rue El Bhaier, Hammam Sousse 4011. 
-This top-rated destination is perfect for Parc de loisirs lovers and offers a range of Parc de loisirs to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 20:00-00:00, but closed on lundi, mardi. To get there, use these GPS coordinates: 35.867169709038, 10.598508041527. For more details, visit their website at http://www.hadhood.com.tn/ or call them at 52 188 999.</t>
+          <t>Parc de loisirs Hadhood is a family-friendly amusement park in hammam sousse, Tunisia. It offers a variety of rides, attractions, and activities for children of all ages, including a carousel, a Ferris wheel, a roller coaster, a water slide, and a petting zoo. The park also has a number of food and beverage options, as well as a large picnic area. It is located at 35.867169709038, 10.598508041527.</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9673,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something related to Magasin de cosmetiques, check out Ecovillage Natural Beauty - Boutique Hammam Sousse located at Avenue 14 Janvier, Route touristique, Hammam Sousse 4083. This top-rated destination with a rating of 4.4 is a must-visit spot for Magasin de cosmetiques enthusiasts. It's open during these hours: 10:00-20:00 but closed on []. To get there, use these GPS coordinates: (35.869776637599, 10.603108765354). For more details, visit their website at https://www.ecovillage.com.tn/ or call them at 56 829 729.</t>
+          <t>Ecovillage Natural Beauty, conveniently situated in Hammam Sousse, is a haven for those seeking rejuvenating experiences. Nestled on Avenue 14 Janvier, this boutique hammam offers a range of cosmetic products and treatments, allowing you to indulge in self-care and enhance your natural beauty.</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9768,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Point d'eau, check out Fontaine Musicale located at Fontaine Musicale, Hammam Sousse. This must-visit spot has a rating of 4.7 and offers a unique experience for Point d'eau lovers. To get there, use these GPS coordinates: 35.8989925, 10.5775013.</t>
+          <t>Fontaine Musicale is a water point located in Hammam Sousse. It is renowned for its beauty and offers a relaxing atmosphere with its captivating water display.</t>
         </is>
       </c>
     </row>
@@ -9944,9 +9875,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Hannibal Park located at Hannibal Park, Hammam Sousse 4089. 
-This top-rated destination is perfect for Parc d'attractions lovers and offers a range of categories to choose from, including Parc de loisirs, Centre de loisirs, and more. 
-With a 4.0 rating, it's a must-visit spot. It's open during these hours: 13:00-00:00. To get there, use these GPS coordinates: 35.89156, 10.59534. For more details, visit their website at https://www.hannibalpark.com/ or call them at 26 562 000.</t>
+          <t>Hannibal Park is a renowned amusement park located in Hammam Sousse, Tunisia (35.89156, 10.59534). With an impressive rating of 4.0 based on 1264 reviews, it features a wide range of attractions and entertainment options for all ages. Visitors can enjoy thrilling rides, explore colorful play areas, and immerse themselves in a vibrant atmosphere filled with music and laughter. Whether you're looking for a fun-filled family outing or a memorable evening with friends, Hannibal Park offers an unforgettable experience.</t>
         </is>
       </c>
     </row>
@@ -10053,7 +9982,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Acqua Palace located at Rue des Palmiers, BP 171, Port, Hammam Sousse 4089. This top-rated destination is perfect for Parc aquatique lovers and offers a range of categories to choose from, including Parc aquatique, Parc de loisirs, and Attraction touristique. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at https://www.acquapalace.com/ or call them at 73 348 855.</t>
+          <t>Acqua Palace is an aquatic complex located in Hammam Sousse, Tunisia, offering a variety of water-based attractions for all ages. It features a wave pool, steep and spiral slides, and a restaurant. The complex is popular with tourists and locals alike and has received positive reviews for its safety, cleanliness, and fun factor.</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10089,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great shopping experience, check out Ecovillage Natural Beauty - Boutique Hammam Sousse located on Avenue 14 Janvier, Route touristique, Hammam Sousse 4083. This top-rated destination is perfect for Magasin de cosmetiques lovers and offers a wide range of products to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-20:00. To get there, use these GPS coordinates: 35.869776637599, 10.603108765354. For more details, visit their website at https://www.ecovillage.com.tn/ or call them at 56 829 729.</t>
+          <t>Ecovillage Natural Beauty - Boutique Hammam Sousse is a beauty store which offers Hammam Sousse in Hammam Sous (Tunisia), located at the following coordinates : (35.869776637599, 10.603108765354).</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10184,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a Point d'eau, check out Fontaine Musicale located at Fontaine Musicale, Hammam Sousse. This top-rated destination is perfect for Point d'eau lovers and offers a rating of 4.7. To get there, use these GPS coordinates: 35.8989925, 10.5775013. For more details, visit their website at https://www.google.com/maps/place/Fontaine+Musicale/data=!4m7!3m6!1s0x12fd89928b3f4ef1:0x5cdcc97bcab01cda!8m2!3d35.8927768!4d10.5945854!16s%2Fg%2F1tdhvqth!19sChIJ8U4_i5KJ_RIR2hywynvJ3Fw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Named "Fontaine Musicale", this water fountain is located in Hammam Sousse, Tunisia. Coordinates are (35.8989925, 10.5775013).</t>
         </is>
       </c>
     </row>
@@ -10354,9 +10283,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a fantastic spot, make your way to Restaurant Club House Golf Kantaoui situated at Port, Hammam Sousse 4089. 
-This highly-rated destination is ideal for Restaurant fans and has an array of Restaurant, Bar lounge options. 
-With an impressive 4.3 rating, it's a place worth checking out. To contact them, dial 95 601 000.</t>
+          <t>The Restaurant Club House Golf Kantaoui is nestled in the bustling city of Hammam Sousse. Set in a convenient location with coordinates (35.8867247, 10.5908411), it offers a captivating dining experience to its patrons. This establishment boasts a 4.3 rating, garnered from 120 reviews, and is renowned for its delectable cuisine and inviting ambiance. With a prominent category of Restaurant, it also encompasses the subcategory of Bar lounge, catering to diverse preferences.</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10386,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out The Container located at WH6G+FPP The Container, Hammam Sousse. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 19:00-04:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/The+Container/data=!4m7!3m6!1s0x12fd89a71af10e5d:0xe0212d6816f4a7ce!8m2!3d35.9112244!4d10.5768349!16s%2Fg%2F11g8vw4rrv!19sChIJXQ7xGqeJ_RIRzqf0FmgtIeA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 804 300.</t>
+          <t>The Container is a bar lounge located in Hammam Sousse, Tunisia. A place well-rated by its visitors (4.2 stars out of 5) with a good number of reviews (49) and a featured image that can be found on the link provided. The place is specialized in Bar lounge and it's open from 19:00-04:00. The Container has no official website but its location can be easily found on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -10566,9 +10493,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Bar, check out NoMAD located at NoMAD, Seabel Alhambra, 4089, Hammam Sousse 4089. 
-This destination is perfect for Bar lovers and offers a range of categories to choose from, including Bar lounge and Restaurant. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at http://www.seabelhotels.com/ or call them at 73 246 400.</t>
+          <t>NoMAD is a bar and restaurant located in Hammam Sousse, Tunisia. It offers a variety of cuisine options and has a rating of 4.2 out of 5 on Google. The bar is open from 12:00-00:00 every day and is closed on Fridays. NoMAD is located at 35.8867247, 10.5908411.</t>
         </is>
       </c>
     </row>
@@ -10667,7 +10592,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a fun night out, check out Le fouqeut's disco lounge located at WH2J+WH7 Le fouqeut's disco lounge, Hammam Sousse. This top-rated destination is perfect for Discotheque lovers and has a rating of 5.0. It's open from 22:00-07:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Le fouqeut's disco lounge is a 5-star rated discotheque located in Hammam Sousse, Tunisia. It is open daily from 10 PM to 7 AM and offers a lively atmosphere for dancing and socializing. It can be found at the coordinates (35.8640797, 10.5922801).</t>
         </is>
       </c>
     </row>
@@ -10762,7 +10687,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Discotheque, check out Mazazic located at WH4H+MX9 Mazazic, Hammam Sousse. This must-visit spot has a rating of 4.0 and offers a range of categories to choose from. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/Mazazic/data=!4m7!3m6!1s0x12fd89384969a6f1:0x220802944bde90db!8m2!3d35.9063791!4d10.5794212!16s%2Fg%2F11tcs3w9_h!19sChIJ8aZpSTiJ_RIR25DeS5QCCCI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Mazazic is a nightclub located in Hammam Sousse, Tunisia. It has a 4.0 rating and offers a variety of music and entertainment options. The exact location of Mazazic is 35.8640797 latitude and 10.5922801 longitude. Mazazic is owned by Mazazic (proprietaire) and has a featured image available at https://lh5.googleusercontent.com/p/AF1QipMncePRU9DJ3xjjaPJ3KGF5o0nntUMgAgFILU2j=w408-h545-k-no.</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10786,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out mqh~ tshlsy located at VH9W+975 mqh~ tshlsy, Hammam Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. Use these GPS coordinates to get there: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%AA%D8%B4%D9%84%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fd8bb0f9631d07:0xf30c60feaacb4d64!8m2!3d35.8683759!4d10.5957465!16s%2Fg%2F11qslw2dls!19sChIJBx1j-bCL_RIRZE3Lqv5gDPM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 084 046.</t>
+          <t>mqh~ tshlsy is a 5-star Discotheque situated at VH9W+975 mqh~ tshlsy, Hammam Sousse with coordinates (35.8640797, 10.5922801). It is owned by mqh~ tshlsy (proprietaire). No additional information or reviews are available at this time.</t>
         </is>
       </c>
     </row>
@@ -10960,7 +10885,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great Restaurant, check out Restaurant Club House Golf Kantaoui at Port, Hammam Sousse 4089. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Bar lounge options to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website or call them at 95 601 000.</t>
+          <t>Restaurant Club House Golf Kantaoui is a restaurant located in Hammam Sousse, Tunisia. It offers a variety of dishes and drinks, including a wide selection of beers. The restaurant also has a beautiful view of the surrounding golf course.</t>
         </is>
       </c>
     </row>
@@ -11063,7 +10988,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Bar lounge to check out, head to The Container located at WH6G+FPP The Container, Hammam Sousse. With a rating of 4.2, this must-visit spot is open during these hours: 19:00-04:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 28 804 300.</t>
+          <t>The Container is a popular bar lounge located in Hammam Sousse, Tunisia. It has an impressive 4.2-star rating from 49 google reviews and is known for its lively ambiance and great music. The bar is open daily from 7 pm to 4 am, offering a wide selection of drinks and a cozy atmosphere. Its convenient location makes it easy to access from various parts of the city. Whether you're a local or a visitor, The Container is a must-visit spot for an unforgettable nightlife experience.</t>
         </is>
       </c>
     </row>
@@ -11170,7 +11095,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated bar, check out NoMAD located at NoMAD, Seabel Alhambra, 4089, Hammam Sousse 4089. This popular destination offers a variety of categories including Bar, Bar lounge, and Restaurant. With a rating of 4.2, it's a must-visit spot. Open daily from 12:00-00:00, it's a great place to unwind and enjoy. For more details, visit their website at http://www.seabelhotels.com/ or call them at 73 246 400.</t>
+          <t>**NoMAD**, located in Hammam Sousse (35.8867247, 10.5908411), is a popular bar and restaurant known for its diverse menu and cozy ambiance. Open from noon to midnight, it offers a range of cuisines, including international dishes and local specialties. With a 4.2-star rating based on 36 reviews, NoMAD is a popular destination for locals and tourists alike. Patrons particularly praise the bar's lounge and restaurant atmosphere.</t>
         </is>
       </c>
     </row>
@@ -11269,9 +11194,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Coco Beach Bar &amp; Grill Hs located at VJ86+QJ2 Coco Beach Bar &amp; Grill Hs, Hammam Sousse. 
-This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-02:00. To get there, use these GPS coordinates: 45.4186794, 12.3820839. For more details, visit their website at  or call them at .</t>
+          <t>Coco Beach Bar &amp; Grill Hs is a vibrant bar located in Hammam Sousse, offering a lively atmosphere. Situated at coordinates (45.4186794, 12.3820839), it boasts a 4.0 rating and stays open from 10:00 am to 02:00 am on weekdays.</t>
         </is>
       </c>
     </row>
@@ -11370,7 +11293,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Discotheque spot, check out Le fouqeut's disco lounge located at WH2J+WH7 Le fouqeut's disco lounge, Hammam Sousse. With a rating of 5.0 out of 2 reviews, it's a must-visit spot. It's open during these hours: 22:00-07:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Le fouqeut's disco lounge is a discotheque located in Hammam sousse, Tunisia. Its coordinates are (35.8640797, 10.5922801). The discotheque is open from 22:00-07:00 and has a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11392,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a fun night out, check out mqh~ tshlsy located at VH9W+975 mqh~ tshlsy, Hammam Sousse. This top-rated destination is a perfect spot for Discotheque lovers and offers a range of Discotheque options. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit the website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%AA%D8%B4%D9%84%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fd8bb0f9631d07:0xf30c60feaacb4d64!8m2!3d35.8683759!4d10.5957465!16s%2Fg%2F11qslw2dls!19sChIJBx1j-bCL_RIRZE3Lqv5gDPM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 084 046.</t>
+          <t>The **mqh~ tshlsy** is a nightclub located in **Hammam Sousse** (35.8640797, 10.5922801). It offers a great musical experience with a variety of genres.</t>
         </is>
       </c>
     </row>
@@ -11564,10 +11487,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a great discotheque, check out Mazazic located at WH4H+MX9, Hammam Sousse. 
-This top-rated destination is perfect for dancing enthusiasts and offers a lively atmosphere. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: TBD, but closed on TBD. To get there, use these GPS coordinates: 35.8640797, 10.5922801. 
-For more details, visit their website at https://www.google.com/maps/place/Mazazic/data=!4m7!3m6!1s0x12fd89384969a6f1:0x220802944bde90db!8m2!3d35.9063791!4d10.5794212!16s%2Fg%2F11tcs3w9_h!19sChIJ8aZpSTiJ_RIR25DeS5QCCCI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Mazazic is a nightclub located in Hammam Sousse, Tunisia. Offering a vibrant ambiance, the club features music and entertainment to keep its patrons entertained. Its central location, at coordinates (35.8640797, 10.5922801), makes it easily accessible for guests seeking a night of dancing and revelry.</t>
         </is>
       </c>
     </row>
@@ -11666,11 +11586,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a great Discotheque, check out mqh~ tshlsy at VH9W+975 mqh~ tshlsy. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque options to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.8640797, 10.5922801. 
-For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%AA%D8%B4%D9%84%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fd8bb0f9631d07:0xf30c60feaacb4d64!8m2!3d35.8683759!4d10.5957465!16s%2Fg%2F11qslw2dls!19sChIJBx1j-bCL_RIRZE3Lqv5gDPM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 084 046.</t>
+          <t>mqh~ tshlsy is a discotheque located in Hammam Sousse, Tunisia. It has a rating of 5.0 out of 5 stars, and its phone number is 55 084 046. Its address is VH9W+975 mqh~ tshlsy, Hammam Sousse. It is located at coordinates (35.8640797, 10.5922801).</t>
         </is>
       </c>
     </row>
@@ -11769,8 +11685,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Restaurant, check out Restaurant Club House Golf Kantaoui located at Port, Hammam Sousse 4089. This popular destination also offers Bar lounge experiences. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: (35.8867247, 10.5908411). For more details, visit their website or call them at 95 601 000.</t>
+          <t>Restaurant Club House Golf Kantaoui is a highly-rated (4.3/5 stars based on 120 reviews) restaurant located in Hammam Sousse, Tunisia. It is known for its great views, affordable prices, and wide selection of beers. The restaurant is open every day and offers a variety of dishes, including traditional Tunisian cuisine and international fare. It is located in the Port area of Hammam Sousse, near the beach and other popular tourist attractions.</t>
         </is>
       </c>
     </row>
@@ -11873,7 +11788,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great Bar lounge, check out The Container located at WH6G+FPP The Container, Hammam Sousse. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 19:00-04:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website or call them at 28 804 300.</t>
+          <t>The Container is a bar lounge located in Hammam Sousse, Tunisia. It has a rating of 4.2 stars on Google and is open from 7 PM to 4 AM. The bar offers a lively atmosphere and is a popular destination for locals and tourists alike. It is easily accessible, located just off the main road, and is within walking distance of many hotels and other attractions.</t>
         </is>
       </c>
     </row>
@@ -11980,9 +11895,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Bar, check out NoMAD located at NoMAD, Seabel Alhambra, 4089, Hammam Sousse 4089. 
-This destination is perfect for Bar lovers and offers a range of Bar lounge, Restaurant categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at http://www.seabelhotels.com/ or call them at 73 246 400.</t>
+          <t>NoMAD is a 4.2 stars rated bar and restaurant located in hammam sousse, Tunisia. Its coordinates are (35.8867247,10.5908411). It is open from 12:00 to midnight every day. NoMAD has 36 reviews and is notable for its cuisine.</t>
         </is>
       </c>
     </row>
@@ -12081,9 +11994,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Le fouqeut's disco lounge located at WH2J+WH7 Le fouqeut's disco lounge, Hammam Sousse. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 22:00-07:00, but closed on . To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at  or call them at .</t>
+          <t>Le fouqeut's disco lounge is a discotheque located in hammam sousse. Its coordinates are (35.8640797, 10.5922801).</t>
         </is>
       </c>
     </row>
@@ -12182,9 +12093,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out mqh~ tshlsy located at VH9W+975 mqh~ tshlsy.
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website or call them at 55 084 046.</t>
+          <t>**Discotheque:** mqh~ tshlsy in Hammam Sousse, Tunisia (lon:10.5922801, lat: 35.8640797). This discotheque offers a vibrant nightlife experience and has received a 5.0 rating from a single review.</t>
         </is>
       </c>
     </row>
@@ -12279,7 +12188,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and love Discotheque, check out Mazazic located at WH4H+MX9 Mazazic, Hammam Sousse. This top-rated destination is perfect for Discotheque lovers and offers a rating of 4.0, making it a must-visit spot. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Mazazic is a discotheque located in WH4H+MX9 Mazazic, Hammam Sousse, Tunisia. It has a rating of 4.0 based on 1 review. The discotheque offers a lively and entertaining atmosphere for its guests.</t>
         </is>
       </c>
     </row>
@@ -12378,7 +12287,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out mqh~ tshlsy located at VH9W+975 mqh~ tshlsy, Hammam Sousse. This top-rated destination is perfect for Discotheque lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at nan or call them at 55 084 046.</t>
+          <t>mqh~ tshlsy is a discotheque located in Hammam Sousse, Tunisia, offering a vibrant nightlife experience. Its exact address is VH9W+975 mqh~ tshlsy, and it boasts a 5-star rating based on one review. Coordinates of the location are (35.8640797, 10.5922801)</t>
         </is>
       </c>
     </row>
@@ -12477,7 +12386,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Restaurant, check out Grill Raouf located at VHHH+VJP Grill Raouf, P1, Hammam Sousse. This popular destination offers a range of categories to choose from, including Restaurant. With a 4.2 rating, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. For more details, visit their website at or call them at .</t>
+          <t>Grill Raouf, located in Hammam Sousse (Tunisia) at coordinates (35.8640797, 10.5922801), is a restaurant that offers fish dishes at affordable prices. It is open from 11am to 11pm, and is closed on Saturdays.</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12485,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Ouled azeiz. Chez Zoubair located at VHHH+9XH Ouled azeiz. Chez Zoubair, P1, Hammam Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 21 670 000.</t>
+          <t>Ouled azeiz. Chez Zoubair is a restaurant located in Hammam Sousse, Tunisia, at the coordinates (35.8640797, 10.5922801). It has a rating of 4.0 based on 7 reviews and offers a variety of dining options.</t>
         </is>
       </c>
     </row>
@@ -12675,7 +12584,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe Restaurant Signature located at VHPQ+QXM Cafe Restaurant Signature, Hammam Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:30. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Cafe Restaurant Signature is a place in Hammam Sousse, Tunisia at the coordinates (35.8640797, 10.5922801). It's a restaurant and cafe with a rating of 4.2. It is open everyday from 7am to 12:30am.</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12687,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Restaurant Paradise located at VHMX+R8R Hammam Sousse. This top-rated destination is perfect for restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:30-23:30. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website  or call them at 22 982 730.</t>
+          <t>Restaurant Paradise, located on (35.8640797,10.5922801), is a restaurant that serves delicious food and drinks. It has a rating of 4.4 stars on Google with 5 reviews. One of the best reviewed Restaurants in hammam sousse.</t>
         </is>
       </c>
     </row>
@@ -12877,7 +12786,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Ken Zmen Restaurant &amp; Lounge located at VHQW+4RC Ken Zmen Restaurant &amp; Lounge, Hammam Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 13:00-04:00, but closed on []. To get there, use these GPS coordinates: 19.058271, 72.834275. For more details, visit their website at https://www.google.com/maps/place/Ken+Zmen+Restaurant+%26+Lounge/data=!4m7!3m6!1s0x12fd899365e5a175:0xf8ad40d3e5a2f9fd!8m2!3d35.8878954!4d10.5968573!16s%2Fg%2F11sw2py97n!19sChIJdaHlZZOJ_RIR_fmi5dNArfg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ken Zmen Restaurant &amp; Lounge is a 4.3-rated restaurant in Hammam Sousse. It is open from 13:00 to 04:00 and offers a variety of dishes. The restaurant is located at VHQW+4RC Ken Zmen Restaurant &amp; Lounge, Hammam Sousse.</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12885,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated restaurant, visit Rancho Farm House at 1 rue okba ibnou nefaa. It's a must-visit spot with a 4.8 rating, perfect for Restaurant lovers. It's open from 11:00-22:00, but closed on . To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, call them at 99 764 660.</t>
+          <t>Nestled in the heart of Hammam Sousse, Tunisia, Rancho Farm House beckons diners with its inviting atmosphere. This restaurant, located at coordinates (35.8626374, 10.5828884), boasts a 4.8-star rating and operates from 11 AM to 10 PM daily. While the specific culinary offerings of Rancho Farm House are not mentioned, its convenient location and positive reviews suggest a delightful dining experience for visitors seeking a memorable meal in the city.</t>
         </is>
       </c>
     </row>
@@ -13079,7 +12988,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to eat, head to Restaurant Salwa Abdellaoui on Rue du Pakistan. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open from 11:30 to 00:00, but closed on . To get there, use these GPS coordinates: 35.863975290317, 10.605005520803. For more details, call them at 98 255 662.</t>
+          <t>Restaurant Salwa Abdellaoui is a restaurant located in Hammam Sousse, Tunisia. It offers a variety of dishes, including Tunisian cuisine. The restaurant is located at the address VJ74+G2H Restaurant Salwa Abdellaoui, Rue du Pakistan, Hammam Sousse. It is open from 11:30am to midnight, and is closed on Sundays. The restaurant has a rating of 5.0 stars on Google, and has received positive reviews from customers.</t>
         </is>
       </c>
     </row>
@@ -13186,9 +13095,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Restaurant Le Mediterranee located at BP 119 Port El Kantaoui 4089 Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Restaurant mediterraneen to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-21:30, but closed on lund. To get there, use these GPS coordinates: 35.89957095, 10.5772884. For more details, visit their website at http://www.lemediterranee.com.tn/ or call them at 27 135 135.</t>
+          <t>Restaurant Le Mediterranee is a Mediterranean restaurant located in Hammam Sousse (Tunisia), with a 4.4 rating based on 554 reviews. It is known for its quality service and wine selection, and offers a view of the port. The menu includes various seafood dishes, such as couscous, fruits de mer, and products from the sea. The restaurant is open from 12:00 pm to 9:30 pm, except on Mondays.</t>
         </is>
       </c>
     </row>
@@ -13295,7 +13202,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great Restaurant, check out Restaurant Les Emirs located at Hammam Sousse. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on . To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 73 348 700.</t>
+          <t>Located in Hammam Sousse, Tunisia, Restaurant Les Emirs is a popular dining spot with a rating of 4.1 out of 5 based on 245 reviews. Open from 9 AM to midnight daily, it offers a range of culinary delights, with a focus on seafood dishes. Its convenient location, accessible through the provided link, makes it easily accessible for guests.</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13305,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated restaurant, check out Restaurant La Daurade located at VHVX+RFC Restaurant La Daurade, Hammam Sousse. This must-visit spot offers a range of categories to choose from, including Restaurant. With a rating of 4.4, it's perfect for Restaurant lovers. It's open during these hours: 12:00-00:00, but closed on . To get there, use these GPS coordinates: 35.8940156, 10.5970822. For more details, visit their website at  or call them at 73 348 893.</t>
+          <t>Restaurant La Daurade is a highly rated (4.4) restaurant located in a popular area whose coordinates are (35.8940156, 10.5970822). It is acclaimed by previous guests for its delicious dishes, particularly the seafood options, and the friendly service. The restaurant is located near the port, offering a scenic view, and has a diverse menu including couscous, pasta, and calamari. A visit to this restaurant promises a delightful culinary experience in a vibrant atmosphere.</t>
         </is>
       </c>
     </row>
@@ -13501,9 +13408,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated Pizzeria, check out Pizza&amp;Go located at cite nozha kantaoui hammam sousse a cote de Yalo cafe sousse, 4089. 
-This popular destination offers a range of categories like Pizzeria and Restaurant. 
-With a rating of 4.3 out of 5 based on 70 reviews, it's a must-visit spot. It's open during these hours: 12:00-23:00. To get there, use these GPS coordinates: 44.1197273, 10.5246723. For more details, call them at 58 000 855.</t>
+          <t>Pizza&amp;Go is a pizzeria located in Hammam Sousse, Tunisia, offering a variety of pizzas, including the popular pizza napolitaine. It is open daily from 12:00-23:00 and has received a 4.3 rating based on 70 reviews. The pizzeria is located at Pizza&amp;Go, cite nozha kantaoui 4089 and can be contacted at 58 000 855.</t>
         </is>
       </c>
     </row>
@@ -13606,10 +13511,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in Hamman Sousse and looking for a great place to eat, check out Restaurant Coconut Island located at WH4P+X7M Restaurant Coconut Island, Unnamed Road, Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on Monday. To get there, use these GPS coordinates: 35.8640797, 10.5922801. 
-For more details, visit their website at https://www.google.com/maps/place/Restaurant+Coconut+Island/data=!4m7!3m6!1s0x12fd89a34c9ae07d:0x940869e9369eef99!8m2!3d35.9074541!4d10.5856705!16s%2Fg%2F11g86yyv92!19sChIJfeCaTKOJ_RIRme-eNulpCJQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 348 479.</t>
+          <t>Discover the charming "Restaurant Coconut Island" located in hammam sousse with its precise coordinates (35.8640797, 10.5922801), offering a delightful culinary experience.</t>
         </is>
       </c>
     </row>
@@ -13708,9 +13610,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse and looking for a delightful dining experience, head to Grill Raouf at VHHH+VJP, P1.
-This top-rated restaurant has a cozy ambiance and a delectable menu, perfect for those who love to savor great flavors. With a rating of 4.2, it's a must-visit spot.
-Grill Raouf is open from 11:00-23:00, so you can enjoy their culinary offerings throughout the day. For more details, visit their website at https://www.google.com/maps/place/Grill+Raouf/data=!4m7!3m6!1s0x12fd8a2a343cd277:0xd8336df9f59f9497!8m2!3d35.8797044!4d10.5790802!16s%2Fg%2F11dxj0mq8x!19sChIJd9I8NCqK_RIRl5Sf9fltM9g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Grill Raouf is a well-reviewed restaurant in Hammam Sousse, Tunisia, that offers a delectable array of dishes featuring fresh fish. With an impressive rating of 4.2 based on 63 reviews, it is a popular destination for locals and tourists alike. Conveniently located at VHHH+VJP, Grill Raouf welcomes diners from 11:00 AM to 11:00 PM every day.</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13717,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to eat, look no further than Restaurant Le Capoul Beach, located at Impasse du, rue du requin hammam-sousse, Hammam Sousse 4000. This top-rated restaurant specializes in Restaurant cuisine and has a 4.2 out of 5 rating on Google, indicating that it's a must-visit spot for foodies. It's open daily from 07:00-23:00, so you can grab a bite whenever you're craving some delicious food. To get there, use these GPS coordinates: (35.86262835, 10.6119869). For more information, visit their website at https://best--restaurants.blogspot.com/ or call them at 29 004 156.</t>
+          <t>Located in hammam sousse, Restaurant Le Capoul Beach is a popular spot with a 4.2 rating, 62 reviews, and a focus on seafood. It is open daily from 7 am to 11 pm, offering a variety of dining options at an affordable price. The restaurant's convenient location near the sea makes it a great place to enjoy a meal and soak up the scenery.</t>
         </is>
       </c>
     </row>
@@ -13920,9 +13820,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Marviva da Luca located at Hammam Sousse.
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of categories to choose from.
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:30-15:15, 19:00-22:45, but closed on monday. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/Marviva+da+Luca/data=!4m7!3m6!1s0x12fd89f2922761ab:0x40b2c570830132e6!8m2!3d35.9113419!4d10.5766755!16s%2Fg%2F11pkc7ch8p!19sChIJq2EnkvKJ_RIR5jIBg3DFskA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 910 381.</t>
+          <t>Marviva da Luca, located in Hammam Sousse, Tunisia (35.8640797, 10.5922801), is a highly-rated Italian restaurant (4.5/5 from 52 reviews). Customers rave about the chef's expertise, the quality of the fish dishes, and the reasonable prices. Open from 12:30 to 15:15 and 19:00 to 22:45, it is closed on Mondays.</t>
         </is>
       </c>
     </row>
@@ -14025,7 +13923,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Cafe El Medina located at VHVV+4JQ Hammam Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-03:30. To get there, use these GPS coordinates: 35.8608, 10.58937. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+El+Medina/data=!4m7!3m6!1s0x12fd89904f631705:0x1635448ed77d402b!8m2!3d35.8928427!4d10.5940059!16s%2Fg%2F11ny0cq4x_!19sChIJBRdjT5CJ_RIRK0B9145ENRY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 740 318.</t>
+          <t>Cafe El Medina is a restaurant in Hammam Sousse, Tunisia. It offers a variety of dishes and drinks. It's located at 35.8608 latitude and 10.58937 longitude.</t>
         </is>
       </c>
     </row>
@@ -14128,7 +14026,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great meal, Restaurant L'artisto is a must-visit spot. This top-rated destination is perfect for Restaurant lovers and is open from 11:00-03:00 during the week. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 95 727 633.</t>
+          <t>Restaurant L'artisto is located in Hammam Sousse (coordinates: 35.8640797, 10.5922801) and its main category is Restaurant. It has a rating of 4.4 based on 47 reviews, and its workday timings are from 11:00-03:00. The phone number is 95 727 633, and it's closed on [].</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14129,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated spot for Restaurant lovers, check out Restaurant al mandra at WH6G+FP7 Restaurant al mandra. This popular destination has a rating of 4.1 and is open from 11:00-03:00 during weekdays. For more details, you can visit their website or call them at 28 804 100.</t>
+          <t>Restaurant al mandra is a restaurant located in Hammam Sousse, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is open from 11:00am to 3:00pm, and is closed on Sundays. It is located at WH6G+FP7 Restaurant al mandra, Hammam Sousse, and can be contacted at 28 804 100.</t>
         </is>
       </c>
     </row>
@@ -14338,7 +14236,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated bar, check out NoMAD located at NoMAD, Seabel Alhambra, 4089, Hammam Sousse 4089. With a rating of 4.2, it's a must-visit spot. It's open from 12:00-00:00 during the week. To get there, use these GPS coordinates: 35.8867247, 10.5908411. For more details, visit their website at http://www.seabelhotels.com/ or call them at 73 246 400.</t>
+          <t>NoMAD, located in Hammam Sousse, offers a cozy atmosphere as a bar and restaurant. It boasts a rating of 4.2 out of 5 from 36 reviews, highlighting its popularity among patrons. Situated at the coordinates (35.8867247, 10.5908411), the establishment is open from 12:00 pm to midnight, seven days a week. Its primary cuisine focus has received positive feedback from customers. Visitors can easily access the establishment through the provided link to Google Maps or the website.</t>
         </is>
       </c>
     </row>
@@ -14441,9 +14339,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Chaneb located at 12 Rte de la Plage, Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.859418602595, 10.600044182781. For more details, visit their website at  or call them at 55 177 330.</t>
+          <t>Chaneb is a restaurant located in Hammam Sousse, Tunisia at coordinates (35.859418602595, 10.600044182781). It is a 24-hour restaurant that offers a variety of cuisines. The restaurant has received a rating of 4.0 based on 36 reviews.</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14442,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated cafe and grill, check out Cafe resto La Sirene located at VJQ2+F3C Cafe resto La Sirene, Hammam Sousse. With a rating of 4.4 out of 34 reviews, it's a must-visit spot open 24 hours a day. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, you can call them at 51 188 880.</t>
+          <t>Cafe resto La Sirene is a popular spot in Hammam Sousse for its cafe and grill menu. Open 24 hours a day, it boasts a rating of 4.4 and 34 reviews on Google Maps. Its coordinates are (35.8640797, 10.5922801), placing it in the heart of the city.</t>
         </is>
       </c>
     </row>
@@ -14649,9 +14545,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great Restaurant, check out El Koucha located at VHQV+54X El Koucha, Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from.
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at (website not available) or call them at 26 300 020.</t>
+          <t>El Koucha, a highly-rated restaurant with 4.4 stars and 33 reviews. Located in El Koucha, Hammam Sousse (35.8640797, 10.5922801), it serves delicious food and offers a cozy and welcoming atmosphere. It is open daily from 8 am to 11 pm and is a great place for locals and tourists alike to enjoy a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -14754,7 +14648,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and searching for a superb dining experience, consider Restaurant London City. Located at WH6G+PH4 Restaurant London City, Route touristique, this restaurant is a 4.3-rated hotspot for Restaurant enthusiasts. With weekday hours from 08:00-00:00, it's the perfect spot to savor delicious meals. For more information, contact Restaurant London City at 29 482 359.</t>
+          <t>Restaurant London City is a highly-rated restaurant located in Hammam Sousse, Tunisia with a rating of 4.3. It is open daily from 8 am to midnight and offers a variety of services and amenities such as a featured image, reviews, a website, and owner information. The restaurant's main category is Restaurant and it also falls under the categories of Restaurant. Notable review keywords include "prix". The restaurant is located at WH6G+PH4 Route touristique, Hammam Sousse and its coordinates are (35.869776637599, 10.603108765354).</t>
         </is>
       </c>
     </row>
@@ -14857,9 +14751,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great Restaurant, visit Restaurant Fricasse Taher located at Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-21:00, but closed on dimanche. To get there, use these GPS coordinates: 35.8640797, 10.5922801.  For more details, visit their website  or call them at 50 499 099.</t>
+          <t>Restaurant Fricasse Taher is a highly rated restaurant in Hammam Sousse, Tunisia. It offers a variety of dishes, and is known for its excellent service. The restaurant is located at (35.8640797, 10.5922801) and is open from 11:00 to 21:00, except on Sundays.</t>
         </is>
       </c>
     </row>
@@ -14962,7 +14854,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse, this top-rated destination, LE MEROU Restaurant et Poissonnerie, located at WH8F+78M LE MEROU Restaurant et Poissonnerie, Unnamed Road, is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 98 100 347.</t>
+          <t>LE MEROU Restaurant et Poissonnerie is situated in hammam sousse, Tunisia. Managed by LE MEROU Restaurant et Poissonnerie (proprietaire), this restaurant offers a great experience with average review rating of 4.7 based on 23 reviews. It has varied price ranges and serves delicious salads. The restaurant is open from 10:00 AM  to 00:00 AM during the weekdays. You can find this restaurant at the coordinates (35.8640797, 10.5922801), which is WH8F+78M LE MEROU Restaurant et Poissonnerie, Unnamed Road, Hammam Sousse.</t>
         </is>
       </c>
     </row>
@@ -15065,7 +14957,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Restaurant Miami located at WH6G+GMV Restaurant Miami, Hammam Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Miami/data=!4m7!3m6!1s0x12fd89a70565ad4f:0xb727c08ac39fbb8!8m2!3d35.9113534!4d10.5766723!16s%2Fg%2F11c5_7krcc!19sChIJT61lBaeJ_RIRuPs5rAh8cgs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 201 235.</t>
+          <t>Restaurant Miami, a well-regarded eating establishment located in Hammam Sousse, Tunisia, is a popular destination for locals and tourists alike. With a rating of 4.3 out of 5 based on 20 reviews, this restaurant offers a satisfying dining experience. Situated at the coordinates (35.8640797, 10.5922801), Restaurant Miami is easily accessible and conveniently located.</t>
         </is>
       </c>
     </row>
@@ -15168,9 +15060,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out le royale located at WH7G+73W le royale, Hammam Sousse. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:30-20:30. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/le+royale/data=!4m7!3m6!1s0x12fd89831f4c73b1:0x29cbae46c2c6057d!8m2!3d35.9132373!4d10.5752156!16s%2Fg%2F11rc9r5r1m!19sChIJsXNMH4OJ_RIRfQXGwkauyyk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 310 020.</t>
+          <t>Le Royale is a fast food restaurant in Hammam Sousse, Tunisia. It is located at WH7G+73W and is open from 9:30 AM to 8:30 PM. The restaurant has a rating of 4.4 out of 5 stars and offers a variety of fast food options.</t>
         </is>
       </c>
     </row>
@@ -15273,9 +15163,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out The Sunrise Beach located at WH5P+62W The Sunrise Beach, Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at or call them at 99 210 960.</t>
+          <t>The Sunrise Beach restaurant is located in Hammam Sousse, Tunisia (35.8640797, 10.5922801). It operates from 10:00 AM to 11:00 PM, and its menu is focused on [cuisine_to_be_specified]. The place has a 4.4/5 rating on Google Maps and offers a great dining experience, as mentioned by its 7 reviews.</t>
         </is>
       </c>
     </row>
@@ -15374,7 +15262,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great place to eat, check out Cafe Restaurant Signature located at VHPQ+QXM Cafe Restaurant Signature, Hammam Sousse. This top-rated restaurant is perfect for food lovers and offers a range of categories to choose from, including Restaurant and Cafe. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:30. To get there, use these GPS coordinates: 35.8640797, 10.5922801.</t>
+          <t>Cafe Restaurant Signature is a well-rated restaurant located in Hammam Sousse offering a variety of dining options. Situated at coordinates (35.8640797, 10.5922801), the restaurant is open from 7:00 AM to 12:30 AM, except for holidays.</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15365,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated restaurant, Restaurant Paradise is the perfect spot. Located at VHMX+R8R, it offers a range of dining options for restaurant lovers. With a 4.4 rating, this must-visit destination is open daily from 9:30 AM to 11:30 PM. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, call them at 22 982 730.</t>
+          <t>Located in Hammam Sousse at VHMX+R8R, Restaurant Paradise is a highly-rated (4.4 out of 5) dining establishment open from 9:30 AM to 11:30 PM. With 5 reviews and a focus on restaurant-style cuisine, it offers a great dining experience.</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15464,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a top-rated restaurant, check out Rancho Farm House located at 1 rue okba ibnou nefaa, Hammam Sousse 4011. With a rating of 4.8, it's a must-visit spot for restaurant lovers. It's open during these hours: 11:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.8626374, 10.5828884. For more details, visit their website or call them at 99 764 660.</t>
+          <t>Rancho Farm House, located in Hammam Sousse, is a well-rated restaurant (4.8/5) that offers a variety of dining options. It is open from 11:00 AM to 10:00 PM every day of the week, and offers a wide range of dishes to choose from. Rancho Farm House is also located near several other popular attractions, making it a great place to visit after a day of exploring the city.</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15563,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great dining experience, check out Ken Zmen Restaurant &amp; Lounge located at VHQW+4RC Ken Zmen Restaurant &amp; Lounge, Hammam Sousse. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 13:00-04:00, but closed on []. For more details, visit their website at https://www.google.com/maps/place/Ken+Zmen+Restaurant+%26+Lounge/data=!4m7!3m6!1s0x12fd899365e5a175:0xf8ad40d3e5a2f9fd!8m2!3d35.8878954!4d10.5968573!16s%2Fg%2F11sw2py97n!19sChIJdaHlZZOJ_RIR_fmi5dNArfg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ken Zmen Restaurant &amp; Lounge, a restaurant located in Hammam Sousse at the coordinates (19.058271, 72.834275), is known for its exceptional dining experience with a rating of 4.3 out of 5 based on 4 reviews. The restaurant is open from 13:00 to 04:00 every day of the week, offering a delectable menu that caters to all tastes.</t>
         </is>
       </c>
     </row>
@@ -15778,7 +15666,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Restaurant Miam's Hammam Sousse located at VJ74+HHG Restaurant Miam's Hammam Sousse, Rte de la Plage, Lebna. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-22:30. To get there, use these GPS coordinates: 36.7033595, 10.9431805. For more details, visit their link at https://www.google.com/maps/place/Restaurant+Miam%27s+Hammam+Sousse/data=!4m7!3m6!1s0x12fd8a11ec8c6bed:0x43c02f5ee21b39a!8m2!3d35.8639355!4d10.6064403!16s%2Fg%2F11c5hkcxkq!19sChIJ7WuM7BGK_RIRmrMh7vUCPAQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 177 097.</t>
+          <t>Restaurant Miam's Hammam Sousse is located in hammam sousse, Tunisia. This highly-rated restaurant (4.2/5) serves a variety of dishes, including burgers, pizzas, salads, and fast food. It also offers a great dining experience with attentive servers and a pleasant atmosphere. The restaurant is open from 12:00pm to 22:30pm, and is located at VJ74+HHG Restaurant Miam's Hammam Sousse, Rte de la Plage, Lebna.</t>
         </is>
       </c>
     </row>
@@ -15885,9 +15773,8 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Restaurant Le Capoul Beach located at Impasse du, rue du requin hammam-sousse, Hammam Sousse 4000. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-23:00, but don't forget that it's closed on []. To get there, use these GPS coordinates: 35.86262835, 10.6119869. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 29 004 156.</t>
+          <t>**Restaurant Le Capoul Beach**
+Nestled in Hammam Sousse, Restaurant Le Capoul Beach is a culinary haven known for its proximity to the serene seashore. With an impressive 4.2-star rating, it serves a tantalizing menu in a welcoming atmosphere. Operating from 7 am to 11 pm, the restaurant's convenient location and extended hours make it a perfect spot for both early birds and late-night cravings.</t>
         </is>
       </c>
     </row>
@@ -15986,7 +15873,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a reliable transportation service, check out Station de taxis collectifs chott Maryam located at VH5X+F94 Station de taxis collectifs chott Maryam, Menchia Bus Stop Hammam Sousse, Hmm sws@,. This top-rated destination is perfect for transportation service lovers. With a rating of 3.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.85966, 10.59818.</t>
+          <t>Station de taxis collectifs chott Maryam is a transportation service located in hammam sousse (Tunisia) at 35.85966 latitude and 10.59818 longitude. It is open 24/7 and offers taxi services.</t>
         </is>
       </c>
     </row>
@@ -16081,9 +15968,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a reliable station, check out Station service Agil GPL KANTAOUI located at VHPW+MJ6 Station service Agil GPL KANTAOUI, Rue de la Tourterelle, Hammam Sousse. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.9, it's a must-visit spot.  To get there, use these GPS coordinates: 35.890152732286, 10.592030438538.</t>
+          <t>Station service Agil GPL KANTAOUI is a gas station located in hammam sousse. It is well-rated with 3.9 out 5 stars based on 16 reviews and offers various services to its customers. The station is situated at the coordinates (35.890152732286, 10.592030438538).</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16063,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse, consider visiting Arret de Bus Hammam-Sousse Menchia, an Arret de bus located at Arret de Bus Hammam-Sousse Menchia, Hammam Sousse. This well-rated destination has a rating of 2.9. The website or contact information isn't currently available. To get there, use these GPS coordinates: 35.8609, 10.60313.</t>
+          <t>The Hammam-Sousse Menchia bus stop is located in Hammam Sousse, Tunisia, at the coordinates (35.8609, 10.60313). It offers bus services to various destinations in the area and has received a 2.9 rating from users.</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16166,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>For all transportation needs in hammam sousse, check out Station Louage Hammam Sousse - Menchiya, located at VH5X+9HM Station Louage Hammam Sousse - Menchiya, Hammam Sousse. This highly-rated spot offers a range of options for travelers. With a rating of 4.2, it's a must-visit location. It's open 24 hours a day, so there's no need to worry about closing times. To get there, use these GPS coordinates: 35.8582783, 10.5990311. For more details, call them at 53 130 705.</t>
+          <t>Station Louage Hammam Sousse - Menchiya is a transport service provider located in hammam sousse, Tunisia at the coordinates (35.8582783, 10.5990311). This place offers a 24/7 service.</t>
         </is>
       </c>
     </row>
@@ -16380,7 +16265,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in Hammam Sousse, Station Agil located at VHVX+7W2 is a top-rated spot for Station essence de carburants alternatifs enthusiasts. With a 4.3 rating, this 24/7 open destination offers a range of services to choose from. For more details, visit their website at https://www.google.com/maps/place/Station+Agil/data=!4m7!3m6!1s0x12fd89ed063488eb:0xfc3ee23dee0658b3!8m2!3d35.8931404!4d10.5997648!16s%2Fg%2F11fx8qr1ck!19sChIJ64g0Bu2J_RIRs1gG7j3iPvw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Agil is a gas station located in Hammam Sousse, Tunisia. It is open 24 hours a day and offers a variety of fuel options, including alternative fuels. The station is conveniently located near major roads and highways, making it easy to fill up your tank before or after a long drive.</t>
         </is>
       </c>
     </row>
@@ -16483,7 +16368,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you find yourself in hammam sousse looking for a highly-rated station, check out OLA Sousse Nord located at OLA Sousse Nord, P1, Hammam Sousse. This petrol station offers a range of services. With a 3.2-star rating, it's a must-visit spot for petrol station lovers in the area. OLA Sousse Nord is open 24 hours a day, so you can fill up your tank whenever you need to. For more details, visit their website or call them at 73 308 740.</t>
+          <t>OLA Sousse Nord is a gas station located in hammam sousse. Its coordinates are (35.8640797, 10.5922801).</t>
         </is>
       </c>
     </row>
@@ -16578,9 +16463,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a great gas station, check out Staroil located at VHMG+GFV Staroil, Hammam Sousse. 
-This top-rated destination is perfect for those who need to refuel their vehicles and offers a range of services to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/Staroil/data=!4m7!3m6!1s0x12fd898040573e07:0xa9f0a47811526214!8m2!3d35.8838711!4d10.5761681!16s%2Fg%2F11f263pdwy!19sChIJBz5XQICJ_RIRFGJSEXik8Kk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Staroil is a well-rated gas station located in Hammam Sousse at (35.8640797, 10.5922801). It offers a wide range of services for your vehicle and is open during regular business hours. The station's friendly staff is always ready to assist you with any questions or needs you may have.</t>
         </is>
       </c>
     </row>
@@ -16671,9 +16554,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Station des louages Sahloul located at Station des louages Sahloul, Hammam Sousse. 
-This top-rated destination is perfect for Arret de transports en commun lovers. 
-With a rating of 3.3, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.8342033, 10.5898061. For more details, visit their website at https://www.google.com/maps/place/Station+des+louages+Sahloul/data=!4m7!3m6!1s0x12fd8af6ed1d1f5f:0x836a80ff227cf70e!8m2!3d35.8345658!4d10.590012!16s%2Fg%2F1hhxlv5xr!19sChIJXx8d7faK_RIRDvd8Iv-AaoM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station des Louages Sahloul is a bus station located in the city of Hammam Sousse, Tunisia. The coordinates of the station are (35.8342033, 10.5898061). The station has a rating of 3.3 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -16768,10 +16649,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and seeking a functional transit spot, consider Arret Sousse-Hammam Sousse - Sahloul. 
-Situated on Arret Sousse-Hammam Sousse - Sahloul, P1, Sousse, this location serves as a crucial public transit hub, facilitating easy movement around the city. 
-With a rating of 2.0, it's recommended to check out this transit stop for a reliable commuting experience. 
-For further guidance, you can reach them through their website at https://www.google.com/maps/place/Arr%C3%A9t+Sousse-Hammam+Sousse+-+Sahloul/data=!4m7!3m6!1s0x12fd8a6e8820ef1f:0xc44918572b05300c!8m2!3d35.8520396!4d10.6055725!16s%2Fg%2F1ptwj1d7_!19sChIJH-8giG6K_RIRDDAFK1cYScQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Arret Sousse-Hammam Sousse, located in P1, Sousse (35.84795, 10.57921), is a bus stop in Hammam Sousse. It provides convenient access to public transportation for locals and visitors. While it offers basic amenities and services, it has received an average rating of 2.0 based on user reviews.</t>
         </is>
       </c>
     </row>
@@ -16866,9 +16744,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for an Arret de bus, check out Arret Bus 13B located at Bd Hedi Chaker, Hammam Sousse. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.860206028155, 10.592341911573. For more details, visit their website at https://www.google.com/maps/place/Arr%C3%AAt+Bus+13B/data=!4m7!3m6!1s0x12fd8a421ef929fd:0x66c91ed8d8678841!8m2!3d35.8534603!4d10.5958629!16s%2Fg%2F1tj5t42z!19sChIJ_Sn5HkKK_RIRQYhn2NgeyWY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Arret Bus 13B** is a bus stop located in Bd Hedi Chaker, Hammam Sousse, Tunisia. Its coordinates are lon: 10.592341911573, lat: 35.860206028155. This bus stop provides access to the 13B bus line.</t>
         </is>
       </c>
     </row>
@@ -16967,9 +16843,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a reliable transportation service, check out Station de taxis collectifs chott Maryam located at VH5X+F94 Station de taxis collectifs chott Maryam, Menchia Bus Stop Hammam Sousse, Hmm sws@,. 
-This top-rated destination is perfect for transportation service lovers. 
-With a rating of 3.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.85966, 10.59818. For more details, visit their website</t>
+          <t>Station de taxis collectifs chott Maryam is located in hammam sousse (Tunisia). We do not have much detailed information about the taxi station, but it is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -17064,7 +16938,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Arret Sousse - Hammam Sousse - Sahloul located at Arret Sousse - Hammam Sousse - Sahloul, P1, Sousse. This top-rated destination is perfect for Arret de bus lovers and offers a range of categories to choose from. With a rating of 3.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 35.84795, 10.57921. For more details, visit their website at or call them at .</t>
+          <t>Hop on the Arret Sousse - Hammam Sousse - Sahloul bus stop located in Hammam Sousse, Tunisia (35.84795, 10.57921). It's easily accessible and conveniently situated.</t>
         </is>
       </c>
     </row>
@@ -17163,7 +17037,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you need a ride in hammam sousse, consider Station de taxi collective de Sahloul, located at VH5X+C84 Station de taxi collective de Sahloul, Hammam Sousse. This service, with a rating of 5.0, is open 24 hours a day. To get directions, use these coordinates: (35.84795, 10.57921). For further information, visit their website at https://www.google.com/maps/place/Station+de+taxi+collective+de+Sahloul/data=!4m7!3m6!1s0x12fd8b78396cfcbf:0x3a449c6fdcafe25d!8m2!3d35.8585103!4d10.5983359!16s%2Fg%2F11swm7djvv!19sChIJv_xsOXiL_RIRXeKv3G-cRDo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de taxi collective de Sahloul is a 24/7 transportation service located in hammam sousse, Tunisia. For any request, go directly to the station or contact them via their website or by phone.</t>
         </is>
       </c>
     </row>
@@ -17258,7 +17132,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Kiosque OLA located at VHJH+9J5 Kiosque OLA, P1, Hammam Sousse. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8640797, 10.5922801. For more details, visit their website at https://www.google.com/maps/place/Kiosque+OLA/data=!4m7!3m6!1s0x12fd8b69d268e5cb:0x319b5afddcb9c466!8m2!3d35.8808967!4d10.5790988!16s%2Fg%2F11kp84r80t!19sChIJy-Vo0mmL_RIRZsS53P1amzE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Kiosque OLA is a gas station located in Hammam Sousse, Tunisia. It offers a wide range of services for travelers, including fuel, snacks, and drinks. The gas station is conveniently located near the city center and is easily accessible by car. It offers a safe and reliable place to refuel and rest during your journey.</t>
         </is>
       </c>
     </row>
@@ -17361,9 +17235,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a convenient way to travel, check out Station Louage Hammam Sousse - Menchiya located at VH5X+9HM Station Louage Hammam Sousse - Menchiya, Hammam Sousse. 
-This top-rated destination is perfect for those seeking a Service de transport and offers a range of options to choose from. 
-With a rating of 4.2, it's a must-visit spot for travelers. It's open 24 hours a day. To get there, use these GPS coordinates: 35.8582783, 10.5990311. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+Hammam+Sousse+-+Menchiya/data=!4m7!3m6!1s0x12fd8a6aceaa0daf:0x1b502008e89ac478!8m2!3d35.8584551!4d10.5989125!16s%2Fg%2F11f3xh2z2c!19sChIJrw2qzmqK_RIReMSa6AggUBs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 130 705.</t>
+          <t>Station Louage Hammam Sousse - Menchiya is a transportation service located at VH5X+9HM, Hammam Sousse, Tunisia. It offers 24-hour service and is highly rated with 4.2 stars out of 5 from 13 reviews. Unfortunately, there is no website or description provided.</t>
         </is>
       </c>
     </row>
@@ -17454,9 +17326,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something fun to do, check out Station des louages Sahloul located at Station des louages Sahloul, Hammam Sousse. 
-This top-rated destination is perfect for Arret de transports en commun lovers and offers a variety of Arret de transports en commun to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8342033, 10.5898061. For more details, visit their website at https://www.google.com/maps/place/Station+des+louages+Sahloul/data=!4m7!3m6!1s0x12fd8af6ed1d1f5f:0x836a80ff227cf70e!8m2!3d35.8345658!4d10.590012!16s%2Fg%2F1hhxlv5xr!19sChIJXx8d7faK_RIRDvd8Iv-AaoM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station des louages Sahloul is a bus station located in Hammam Sousse, Tunisia. It offers transportation services to various destinations and is a convenient hub for travelers. The station is situated at coordinates (35.8342033, 10.5898061), making it easily accessible. With a rating of 3.3 out of 5, it has received positive feedback from users.</t>
         </is>
       </c>
     </row>
@@ -17551,9 +17421,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for something to do, check out Arret Sousse-Hammam Sousse - Sahloul located at Arret Sousse-Hammam Sousse - Sahloul, P1, Sousse. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 2.0, it's a must-visit spot.</t>
+          <t>Arret Sousse-Hammam Sousse - Sahloul is a bus stop located in Hammam Sousse, Tunisia. It is situated at the coordinates (35.84795, 10.57921) and offers public transportation services to the local community.</t>
         </is>
       </c>
     </row>
@@ -17648,9 +17516,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a bus stop, check out Arret Sousse - Hammam Sousse - Sahloul located at Arret Sousse - Hammam Sousse - Sahloul, P1, Sousse. 
-This top-rated destination is perfect for transportation lovers and offers a range of bus services to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.84795, 10.57921.</t>
+          <t>Arret Sousse - Hammam Sousse - Sahloul is a bus stop located in Hammam Sousse, Tunisia. It is situated at the coordinates (35.84795, 10.57921). The bus stop offers transportation services to the surrounding areas.</t>
         </is>
       </c>
     </row>
@@ -17749,7 +17615,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in hammam sousse and looking for a reliable transportation service, check out Station de taxi collective de Sahloul located at VH5X+C84 Station de taxi collective de Sahloul, Hammam Sousse. This top-rated destination is perfect for those needing transportation services and is open 24 hours a day. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.84795, 10.57921.</t>
+          <t>The Sahloul shared taxi station is located in Hammam sousse, at the coordinates (35.84795, 10.57921). It is a transportation service open 24 hours a day and is highly rated (5.0) by its users. The station offers shared taxi services, making it a convenient and affordable option for getting around the city.</t>
         </is>
       </c>
     </row>
